--- a/test-data/qqq/qqq.xlsx
+++ b/test-data/qqq/qqq.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Distance</t>
   </si>
   <si>
     <t>Mean hardness</t>
+  </si>
+  <si>
+    <t>Roll ID</t>
+  </si>
+  <si>
+    <t>qqq</t>
   </si>
   <si>
     <t>Hardness</t>
@@ -393,138 +399,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:C540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>169.7267249566582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>169.727</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.001</v>
       </c>
       <c r="B3">
-        <v>169.7844119978525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>169.784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.002</v>
       </c>
       <c r="B4">
-        <v>169.9524795626737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>169.952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.003</v>
       </c>
       <c r="B5">
-        <v>170.2165100830016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>170.217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.004</v>
       </c>
       <c r="B6">
-        <v>170.5542557519466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>170.554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.005</v>
       </c>
       <c r="B7">
-        <v>170.938071220123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>170.938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.006</v>
       </c>
       <c r="B8">
-        <v>171.3378600153599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>171.338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.007</v>
       </c>
       <c r="B9">
-        <v>171.724154896291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>171.724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.008</v>
       </c>
       <c r="B10">
-        <v>172.0708706416046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>172.071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B11">
-        <v>172.3576849694281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>172.358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>0.01</v>
       </c>
       <c r="B12">
-        <v>172.5714340229626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>172.571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>0.011</v>
       </c>
       <c r="B13">
-        <v>172.7065823515034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>172.707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>0.012</v>
       </c>
       <c r="B14">
-        <v>172.7649743666171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>172.765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>0.013</v>
       </c>
       <c r="B15">
-        <v>172.7545094109702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>172.755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>0.014</v>
       </c>
       <c r="B16">
-        <v>172.6872879330938</v>
+        <v>172.687</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -532,7 +544,7 @@
         <v>0.015</v>
       </c>
       <c r="B17">
-        <v>172.5775068553359</v>
+        <v>172.578</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -540,7 +552,7 @@
         <v>0.016</v>
       </c>
       <c r="B18">
-        <v>172.4400999277953</v>
+        <v>172.44</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -548,7 +560,7 @@
         <v>0.017</v>
       </c>
       <c r="B19">
-        <v>172.2891499773704</v>
+        <v>172.289</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -556,7 +568,7 @@
         <v>0.018</v>
       </c>
       <c r="B20">
-        <v>172.136831442058</v>
+        <v>172.137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -564,7 +576,7 @@
         <v>0.019</v>
       </c>
       <c r="B21">
-        <v>171.9925607137685</v>
+        <v>171.993</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -572,7 +584,7 @@
         <v>0.02</v>
       </c>
       <c r="B22">
-        <v>171.8628334088883</v>
+        <v>171.863</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -580,7 +592,7 @@
         <v>0.021</v>
       </c>
       <c r="B23">
-        <v>171.7518636411194</v>
+        <v>171.752</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -588,7 +600,7 @@
         <v>0.022</v>
       </c>
       <c r="B24">
-        <v>171.6619879007251</v>
+        <v>171.662</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -596,7 +608,7 @@
         <v>0.023</v>
       </c>
       <c r="B25">
-        <v>171.5933251309816</v>
+        <v>171.593</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -604,7 +616,7 @@
         <v>0.024</v>
       </c>
       <c r="B26">
-        <v>171.5462904373217</v>
+        <v>171.546</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -612,7 +624,7 @@
         <v>0.025</v>
       </c>
       <c r="B27">
-        <v>171.5213500975221</v>
+        <v>171.521</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -620,7 +632,7 @@
         <v>0.026</v>
       </c>
       <c r="B28">
-        <v>171.5202435829456</v>
+        <v>171.52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -628,7 +640,7 @@
         <v>0.027</v>
       </c>
       <c r="B29">
-        <v>171.5450510073019</v>
+        <v>171.545</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -636,7 +648,7 @@
         <v>0.028</v>
       </c>
       <c r="B30">
-        <v>171.5970823151145</v>
+        <v>171.597</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -644,7 +656,7 @@
         <v>0.029</v>
       </c>
       <c r="B31">
-        <v>171.6776678733124</v>
+        <v>171.678</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -652,7 +664,7 @@
         <v>0.03</v>
       </c>
       <c r="B32">
-        <v>171.7872449714412</v>
+        <v>171.787</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -660,7 +672,7 @@
         <v>0.031</v>
       </c>
       <c r="B33">
-        <v>171.9270494767321</v>
+        <v>171.927</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -668,7 +680,7 @@
         <v>0.032</v>
       </c>
       <c r="B34">
-        <v>172.097764079622</v>
+        <v>172.098</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -676,7 +688,7 @@
         <v>0.033</v>
       </c>
       <c r="B35">
-        <v>172.2991976154289</v>
+        <v>172.299</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -684,7 +696,7 @@
         <v>0.034</v>
       </c>
       <c r="B36">
-        <v>172.5300552670198</v>
+        <v>172.53</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -692,7 +704,7 @@
         <v>0.035</v>
       </c>
       <c r="B37">
-        <v>172.7872385178476</v>
+        <v>172.787</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -700,7 +712,7 @@
         <v>0.036</v>
       </c>
       <c r="B38">
-        <v>173.0657630171551</v>
+        <v>173.066</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -708,7 +720,7 @@
         <v>0.037</v>
       </c>
       <c r="B39">
-        <v>173.3585074220416</v>
+        <v>173.359</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -716,7 +728,7 @@
         <v>0.038</v>
       </c>
       <c r="B40">
-        <v>173.6561309605662</v>
+        <v>173.656</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -724,7 +736,7 @@
         <v>0.039</v>
       </c>
       <c r="B41">
-        <v>173.9472279532819</v>
+        <v>173.947</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -732,7 +744,7 @@
         <v>0.04</v>
       </c>
       <c r="B42">
-        <v>174.2187179312472</v>
+        <v>174.219</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -740,7 +752,7 @@
         <v>0.041</v>
       </c>
       <c r="B43">
-        <v>174.456454154815</v>
+        <v>174.456</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -748,7 +760,7 @@
         <v>0.042</v>
       </c>
       <c r="B44">
-        <v>174.6460540821211</v>
+        <v>174.646</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +768,7 @@
         <v>0.043</v>
       </c>
       <c r="B45">
-        <v>174.7738680579539</v>
+        <v>174.774</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -764,7 +776,7 @@
         <v>0.044</v>
       </c>
       <c r="B46">
-        <v>174.8280111823553</v>
+        <v>174.828</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -772,7 +784,7 @@
         <v>0.045</v>
       </c>
       <c r="B47">
-        <v>174.7993611274314</v>
+        <v>174.799</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -780,7 +792,7 @@
         <v>0.046</v>
       </c>
       <c r="B48">
-        <v>174.6824206497137</v>
+        <v>174.682</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -788,7 +800,7 @@
         <v>0.047</v>
       </c>
       <c r="B49">
-        <v>174.4759516884922</v>
+        <v>174.476</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -796,7 +808,7 @@
         <v>0.048</v>
       </c>
       <c r="B50">
-        <v>174.1833078100526</v>
+        <v>174.183</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -804,7 +816,7 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>173.812422974495</v>
+        <v>173.812</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -812,7 +824,7 @@
         <v>0.05</v>
       </c>
       <c r="B52">
-        <v>173.3754456394641</v>
+        <v>173.375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -820,7 +832,7 @@
         <v>0.051</v>
       </c>
       <c r="B53">
-        <v>172.8880382911561</v>
+        <v>172.888</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -828,7 +840,7 @@
         <v>0.052</v>
       </c>
       <c r="B54">
-        <v>172.3684240626074</v>
+        <v>172.368</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -836,7 +848,7 @@
         <v>0.053</v>
       </c>
       <c r="B55">
-        <v>171.8362521732099</v>
+        <v>171.836</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -844,7 +856,7 @@
         <v>0.054</v>
       </c>
       <c r="B56">
-        <v>171.3113905113343</v>
+        <v>171.311</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -852,7 +864,7 @@
         <v>0.055</v>
       </c>
       <c r="B57">
-        <v>170.8127528691676</v>
+        <v>170.813</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -860,7 +872,7 @@
         <v>0.056</v>
       </c>
       <c r="B58">
-        <v>170.3572599292865</v>
+        <v>170.357</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -868,7 +880,7 @@
         <v>0.057</v>
       </c>
       <c r="B59">
-        <v>169.9590194556002</v>
+        <v>169.959</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -876,7 +888,7 @@
         <v>0.058</v>
       </c>
       <c r="B60">
-        <v>169.6289265063554</v>
+        <v>169.629</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -884,7 +896,7 @@
         <v>0.059</v>
       </c>
       <c r="B61">
-        <v>169.3741177454664</v>
+        <v>169.374</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -892,7 +904,7 @@
         <v>0.06</v>
       </c>
       <c r="B62">
-        <v>169.1981067739031</v>
+        <v>169.198</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -900,7 +912,7 @@
         <v>0.061</v>
       </c>
       <c r="B63">
-        <v>169.1010702872064</v>
+        <v>169.101</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -908,7 +920,7 @@
         <v>0.062</v>
       </c>
       <c r="B64">
-        <v>169.0801152287577</v>
+        <v>169.08</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -916,7 +928,7 @@
         <v>0.063</v>
       </c>
       <c r="B65">
-        <v>169.1299819850346</v>
+        <v>169.13</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -924,7 +936,7 @@
         <v>0.064</v>
       </c>
       <c r="B66">
-        <v>169.2437805489983</v>
+        <v>169.244</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -932,7 +944,7 @@
         <v>0.065</v>
       </c>
       <c r="B67">
-        <v>169.413744715275</v>
+        <v>169.414</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -940,7 +952,7 @@
         <v>0.066</v>
       </c>
       <c r="B68">
-        <v>169.6311645349689</v>
+        <v>169.631</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -948,7 +960,7 @@
         <v>0.067</v>
       </c>
       <c r="B69">
-        <v>169.8868802627063</v>
+        <v>169.887</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +968,7 @@
         <v>0.068</v>
       </c>
       <c r="B70">
-        <v>170.1715730888717</v>
+        <v>170.172</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -964,7 +976,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B71">
-        <v>170.4762613802098</v>
+        <v>170.476</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -972,23 +984,23 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B72">
-        <v>170.7922599541141</v>
+        <v>170.792</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.07100000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="B73">
-        <v>171.1110305160844</v>
+        <v>171.111</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>0.07200000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B74">
-        <v>171.4243687206574</v>
+        <v>171.424</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -996,7 +1008,7 @@
         <v>0.073</v>
       </c>
       <c r="B75">
-        <v>171.724328975713</v>
+        <v>171.724</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1004,7 +1016,7 @@
         <v>0.074</v>
       </c>
       <c r="B76">
-        <v>172.0032416811079</v>
+        <v>172.003</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1012,7 +1024,7 @@
         <v>0.075</v>
       </c>
       <c r="B77">
-        <v>172.2537966811528</v>
+        <v>172.254</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1032,7 @@
         <v>0.076</v>
       </c>
       <c r="B78">
-        <v>172.4693533460465</v>
+        <v>172.469</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1028,7 +1040,7 @@
         <v>0.077</v>
       </c>
       <c r="B79">
-        <v>172.6443049038206</v>
+        <v>172.644</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1036,7 +1048,7 @@
         <v>0.078</v>
       </c>
       <c r="B80">
-        <v>172.7745203228669</v>
+        <v>172.775</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1044,7 +1056,7 @@
         <v>0.079</v>
       </c>
       <c r="B81">
-        <v>172.8578074746107</v>
+        <v>172.858</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1052,7 +1064,7 @@
         <v>0.08</v>
       </c>
       <c r="B82">
-        <v>172.8943250524788</v>
+        <v>172.894</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1060,7 +1072,7 @@
         <v>0.081</v>
       </c>
       <c r="B83">
-        <v>172.8868655806249</v>
+        <v>172.887</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1068,7 +1080,7 @@
         <v>0.082</v>
       </c>
       <c r="B84">
-        <v>172.8409397629366</v>
+        <v>172.841</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1076,7 +1088,7 @@
         <v>0.083</v>
       </c>
       <c r="B85">
-        <v>172.7646127576784</v>
+        <v>172.765</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1084,7 +1096,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B86">
-        <v>172.6680733389717</v>
+        <v>172.668</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1092,23 +1104,23 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B87">
-        <v>172.5630453911467</v>
+        <v>172.563</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>0.08600000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="B88">
-        <v>172.4617694941819</v>
+        <v>172.462</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>0.08700000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="B89">
-        <v>172.3760529278206</v>
+        <v>172.376</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1116,7 +1128,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B90">
-        <v>172.3162935221476</v>
+        <v>172.316</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1124,7 +1136,7 @@
         <v>0.089</v>
       </c>
       <c r="B91">
-        <v>172.2905767722259</v>
+        <v>172.291</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1132,7 +1144,7 @@
         <v>0.09</v>
       </c>
       <c r="B92">
-        <v>172.3039712038455</v>
+        <v>172.304</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1140,7 +1152,7 @@
         <v>0.091</v>
       </c>
       <c r="B93">
-        <v>172.358101189546</v>
+        <v>172.358</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1160,7 @@
         <v>0.092</v>
       </c>
       <c r="B94">
-        <v>172.451044996595</v>
+        <v>172.451</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1156,7 +1168,7 @@
         <v>0.093</v>
       </c>
       <c r="B95">
-        <v>172.5775075851722</v>
+        <v>172.578</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1164,7 +1176,7 @@
         <v>0.094</v>
       </c>
       <c r="B96">
-        <v>172.7294270574892</v>
+        <v>172.729</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1172,7 +1184,7 @@
         <v>0.095</v>
       </c>
       <c r="B97">
-        <v>172.8967815368636</v>
+        <v>172.897</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1192,7 @@
         <v>0.096</v>
       </c>
       <c r="B98">
-        <v>173.0684709967637</v>
+        <v>173.068</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1188,7 +1200,7 @@
         <v>0.097</v>
       </c>
       <c r="B99">
-        <v>173.2332994766589</v>
+        <v>173.233</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1196,7 +1208,7 @@
         <v>0.098</v>
       </c>
       <c r="B100">
-        <v>173.3809085468494</v>
+        <v>173.381</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1204,7 +1216,7 @@
         <v>0.099</v>
       </c>
       <c r="B101">
-        <v>173.5025773204073</v>
+        <v>173.503</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1212,7 +1224,7 @@
         <v>0.1</v>
       </c>
       <c r="B102">
-        <v>173.5918279974254</v>
+        <v>173.592</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1220,7 +1232,7 @@
         <v>0.101</v>
       </c>
       <c r="B103">
-        <v>173.644804819354</v>
+        <v>173.645</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1228,7 +1240,7 @@
         <v>0.102</v>
       </c>
       <c r="B104">
-        <v>173.6604236844579</v>
+        <v>173.66</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1236,7 +1248,7 @@
         <v>0.103</v>
       </c>
       <c r="B105">
-        <v>173.6404723596967</v>
+        <v>173.64</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1244,7 +1256,7 @@
         <v>0.104</v>
       </c>
       <c r="B106">
-        <v>173.5891866858098</v>
+        <v>173.589</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1252,7 +1264,7 @@
         <v>0.105</v>
       </c>
       <c r="B107">
-        <v>173.5128988638876</v>
+        <v>173.513</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1260,7 +1272,7 @@
         <v>0.106</v>
       </c>
       <c r="B108">
-        <v>173.4197404786484</v>
+        <v>173.42</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1268,7 +1280,7 @@
         <v>0.107</v>
       </c>
       <c r="B109">
-        <v>173.3193524572649</v>
+        <v>173.319</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1276,7 +1288,7 @@
         <v>0.108</v>
       </c>
       <c r="B110">
-        <v>173.2223468862326</v>
+        <v>173.222</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1284,7 +1296,7 @@
         <v>0.109</v>
       </c>
       <c r="B111">
-        <v>173.139664045327</v>
+        <v>173.14</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1292,7 +1304,7 @@
         <v>0.11</v>
       </c>
       <c r="B112">
-        <v>173.0819917122517</v>
+        <v>173.082</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1300,7 +1312,7 @@
         <v>0.111</v>
       </c>
       <c r="B113">
-        <v>173.0594701220749</v>
+        <v>173.059</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1308,7 +1320,7 @@
         <v>0.112</v>
       </c>
       <c r="B114">
-        <v>173.0812195339755</v>
+        <v>173.081</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1316,7 +1328,7 @@
         <v>0.113</v>
       </c>
       <c r="B115">
-        <v>173.1542801555192</v>
+        <v>173.154</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1324,7 +1336,7 @@
         <v>0.114</v>
       </c>
       <c r="B116">
-        <v>173.2827160872665</v>
+        <v>173.283</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1332,7 +1344,7 @@
         <v>0.115</v>
       </c>
       <c r="B117">
-        <v>173.4666797878312</v>
+        <v>173.467</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1340,7 +1352,7 @@
         <v>0.116</v>
       </c>
       <c r="B118">
-        <v>173.7015787024044</v>
+        <v>173.702</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1348,7 +1360,7 @@
         <v>0.117</v>
       </c>
       <c r="B119">
-        <v>173.9772642200335</v>
+        <v>173.977</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1356,7 +1368,7 @@
         <v>0.118</v>
       </c>
       <c r="B120">
-        <v>174.2775806107607</v>
+        <v>174.278</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1364,7 +1376,7 @@
         <v>0.119</v>
       </c>
       <c r="B121">
-        <v>174.5805020857302</v>
+        <v>174.581</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1372,7 +1384,7 @@
         <v>0.12</v>
       </c>
       <c r="B122">
-        <v>174.8587541717872</v>
+        <v>174.859</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1380,7 +1392,7 @@
         <v>0.121</v>
       </c>
       <c r="B123">
-        <v>175.0810722310116</v>
+        <v>175.081</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1388,7 +1400,7 @@
         <v>0.122</v>
       </c>
       <c r="B124">
-        <v>175.2140240238221</v>
+        <v>175.214</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1396,7 +1408,7 @@
         <v>0.123</v>
       </c>
       <c r="B125">
-        <v>175.2242366581882</v>
+        <v>175.224</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1404,7 +1416,7 @@
         <v>0.124</v>
       </c>
       <c r="B126">
-        <v>175.0809765966618</v>
+        <v>175.081</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1412,7 +1424,7 @@
         <v>0.125</v>
       </c>
       <c r="B127">
-        <v>174.7588013092536</v>
+        <v>174.759</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1420,7 +1432,7 @@
         <v>0.126</v>
       </c>
       <c r="B128">
-        <v>174.2398691275003</v>
+        <v>174.24</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1428,7 +1440,7 @@
         <v>0.127</v>
       </c>
       <c r="B129">
-        <v>173.5158118671655</v>
+        <v>173.516</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1436,7 +1448,7 @@
         <v>0.128</v>
       </c>
       <c r="B130">
-        <v>172.5888984779555</v>
+        <v>172.589</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1444,7 +1456,7 @@
         <v>0.129</v>
       </c>
       <c r="B131">
-        <v>171.4723398955992</v>
+        <v>171.472</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1452,7 +1464,7 @@
         <v>0.13</v>
       </c>
       <c r="B132">
-        <v>170.1896756230885</v>
+        <v>170.19</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1460,7 +1472,7 @@
         <v>0.131</v>
       </c>
       <c r="B133">
-        <v>168.7732828213956</v>
+        <v>168.773</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1468,7 +1480,7 @@
         <v>0.132</v>
       </c>
       <c r="B134">
-        <v>167.2621455936689</v>
+        <v>167.262</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1476,7 +1488,7 @@
         <v>0.133</v>
       </c>
       <c r="B135">
-        <v>165.6991032983903</v>
+        <v>165.699</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1484,7 +1496,7 @@
         <v>0.134</v>
       </c>
       <c r="B136">
-        <v>164.1278513686872</v>
+        <v>164.128</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1492,7 +1504,7 @@
         <v>0.135</v>
       </c>
       <c r="B137">
-        <v>162.5899893375668</v>
+        <v>162.59</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1500,7 +1512,7 @@
         <v>0.136</v>
       </c>
       <c r="B138">
-        <v>161.1223964842354</v>
+        <v>161.122</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1508,7 +1520,7 @@
         <v>0.137</v>
       </c>
       <c r="B139">
-        <v>159.7551681622179</v>
+        <v>159.755</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1516,7 +1528,7 @@
         <v>0.138</v>
       </c>
       <c r="B140">
-        <v>158.5102727618794</v>
+        <v>158.51</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1524,7 +1536,7 @@
         <v>0.139</v>
       </c>
       <c r="B141">
-        <v>157.4010008815308</v>
+        <v>157.401</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1532,7 +1544,7 @@
         <v>0.14</v>
       </c>
       <c r="B142">
-        <v>156.4321866524425</v>
+        <v>156.432</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1540,7 +1552,7 @@
         <v>0.141</v>
       </c>
       <c r="B143">
-        <v>155.601098670404</v>
+        <v>155.601</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1560,7 @@
         <v>0.142</v>
       </c>
       <c r="B144">
-        <v>154.8988345554395</v>
+        <v>154.899</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1556,7 +1568,7 @@
         <v>0.143</v>
       </c>
       <c r="B145">
-        <v>154.3120795691787</v>
+        <v>154.312</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1564,7 +1576,7 @@
         <v>0.144</v>
       </c>
       <c r="B146">
-        <v>153.8248255337789</v>
+        <v>153.825</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1572,7 +1584,7 @@
         <v>0.145</v>
       </c>
       <c r="B147">
-        <v>153.4200167021337</v>
+        <v>153.42</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1580,7 +1592,7 @@
         <v>0.146</v>
       </c>
       <c r="B148">
-        <v>153.0808309174186</v>
+        <v>153.081</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1588,7 +1600,7 @@
         <v>0.147</v>
       </c>
       <c r="B149">
-        <v>152.7921138403608</v>
+        <v>152.792</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1596,7 +1608,7 @@
         <v>0.148</v>
       </c>
       <c r="B150">
-        <v>152.5408383631265</v>
+        <v>152.541</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1604,7 +1616,7 @@
         <v>0.149</v>
       </c>
       <c r="B151">
-        <v>152.3163923524532</v>
+        <v>152.316</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1612,7 +1624,7 @@
         <v>0.15</v>
       </c>
       <c r="B152">
-        <v>152.1105583470214</v>
+        <v>152.111</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1620,7 +1632,7 @@
         <v>0.151</v>
       </c>
       <c r="B153">
-        <v>151.9172890085761</v>
+        <v>151.917</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1628,7 +1640,7 @@
         <v>0.152</v>
       </c>
       <c r="B154">
-        <v>151.7323941166939</v>
+        <v>151.732</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1636,7 +1648,7 @@
         <v>0.153</v>
       </c>
       <c r="B155">
-        <v>151.5531649876179</v>
+        <v>151.553</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1644,7 +1656,7 @@
         <v>0.154</v>
       </c>
       <c r="B156">
-        <v>151.3782205814753</v>
+        <v>151.378</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1652,7 +1664,7 @@
         <v>0.155</v>
       </c>
       <c r="B157">
-        <v>151.2075534696978</v>
+        <v>151.208</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1660,7 +1672,7 @@
         <v>0.156</v>
       </c>
       <c r="B158">
-        <v>151.0425391506577</v>
+        <v>151.043</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1668,7 +1680,7 @@
         <v>0.157</v>
       </c>
       <c r="B159">
-        <v>150.8859468726189</v>
+        <v>150.886</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1676,7 +1688,7 @@
         <v>0.158</v>
       </c>
       <c r="B160">
-        <v>150.742170014061</v>
+        <v>150.742</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1684,7 +1696,7 @@
         <v>0.159</v>
       </c>
       <c r="B161">
-        <v>150.6177296911517</v>
+        <v>150.618</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1692,7 +1704,7 @@
         <v>0.16</v>
       </c>
       <c r="B162">
-        <v>150.5214644525421</v>
+        <v>150.521</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1700,7 +1712,7 @@
         <v>0.161</v>
       </c>
       <c r="B163">
-        <v>150.4640867642862</v>
+        <v>150.464</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1708,7 +1720,7 @@
         <v>0.162</v>
       </c>
       <c r="B164">
-        <v>150.4576380821862</v>
+        <v>150.458</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1716,7 +1728,7 @@
         <v>0.163</v>
       </c>
       <c r="B165">
-        <v>150.5151866049646</v>
+        <v>150.515</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1724,7 +1736,7 @@
         <v>0.164</v>
       </c>
       <c r="B166">
-        <v>150.650086309016</v>
+        <v>150.65</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1732,7 +1744,7 @@
         <v>0.165</v>
       </c>
       <c r="B167">
-        <v>150.8751277181765</v>
+        <v>150.875</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1740,7 +1752,7 @@
         <v>0.166</v>
       </c>
       <c r="B168">
-        <v>151.201713720358</v>
+        <v>151.202</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1748,7 +1760,7 @@
         <v>0.167</v>
       </c>
       <c r="B169">
-        <v>151.6387165324338</v>
+        <v>151.639</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1756,7 +1768,7 @@
         <v>0.168</v>
       </c>
       <c r="B170">
-        <v>152.191890095142</v>
+        <v>152.192</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1764,7 +1776,7 @@
         <v>0.169</v>
       </c>
       <c r="B171">
-        <v>152.8633522496878</v>
+        <v>152.863</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1772,7 +1784,7 @@
         <v>0.17</v>
       </c>
       <c r="B172">
-        <v>153.6513670673712</v>
+        <v>153.651</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1780,7 +1792,7 @@
         <v>0.171</v>
       </c>
       <c r="B173">
-        <v>154.5504089520743</v>
+        <v>154.55</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1788,7 +1800,7 @@
         <v>0.172</v>
       </c>
       <c r="B174">
-        <v>155.5515313887868</v>
+        <v>155.552</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1796,7 +1808,7 @@
         <v>0.173</v>
       </c>
       <c r="B175">
-        <v>156.6429913708413</v>
+        <v>156.643</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1804,7 +1816,7 @@
         <v>0.174</v>
       </c>
       <c r="B176">
-        <v>157.8110224026212</v>
+        <v>157.811</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1812,7 +1824,7 @@
         <v>0.175</v>
       </c>
       <c r="B177">
-        <v>159.0406651179436</v>
+        <v>159.041</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1820,7 +1832,7 @@
         <v>0.176</v>
       </c>
       <c r="B178">
-        <v>160.3165533478764</v>
+        <v>160.317</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1828,7 +1840,7 @@
         <v>0.177</v>
       </c>
       <c r="B179">
-        <v>161.6235671480266</v>
+        <v>161.624</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1836,7 +1848,7 @@
         <v>0.178</v>
       </c>
       <c r="B180">
-        <v>162.947290972962</v>
+        <v>162.947</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1844,7 +1856,7 @@
         <v>0.179</v>
       </c>
       <c r="B181">
-        <v>164.2742504654634</v>
+        <v>164.274</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1852,7 +1864,7 @@
         <v>0.18</v>
       </c>
       <c r="B182">
-        <v>165.5919392837697</v>
+        <v>165.592</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1860,7 +1872,7 @@
         <v>0.181</v>
       </c>
       <c r="B183">
-        <v>166.8886818120904</v>
+        <v>166.889</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1868,7 +1880,7 @@
         <v>0.182</v>
       </c>
       <c r="B184">
-        <v>168.1534029327585</v>
+        <v>168.153</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1876,7 +1888,7 @@
         <v>0.183</v>
       </c>
       <c r="B185">
-        <v>169.3753881938968</v>
+        <v>169.375</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1884,7 +1896,7 @@
         <v>0.184</v>
       </c>
       <c r="B186">
-        <v>170.5440835391624</v>
+        <v>170.544</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1892,7 +1904,7 @@
         <v>0.185</v>
       </c>
       <c r="B187">
-        <v>171.6491061367525</v>
+        <v>171.649</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1900,7 +1912,7 @@
         <v>0.186</v>
       </c>
       <c r="B188">
-        <v>172.6803753572272</v>
+        <v>172.68</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1908,7 +1920,7 @@
         <v>0.187</v>
       </c>
       <c r="B189">
-        <v>173.6284054141537</v>
+        <v>173.628</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1916,7 +1928,7 @@
         <v>0.188</v>
       </c>
       <c r="B190">
-        <v>174.4847547713844</v>
+        <v>174.485</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1924,7 +1936,7 @@
         <v>0.189</v>
       </c>
       <c r="B191">
-        <v>175.242558000095</v>
+        <v>175.243</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1932,7 +1944,7 @@
         <v>0.19</v>
       </c>
       <c r="B192">
-        <v>175.8970637563196</v>
+        <v>175.897</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1940,7 +1952,7 @@
         <v>0.191</v>
       </c>
       <c r="B193">
-        <v>176.4460976341242</v>
+        <v>176.446</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1948,7 +1960,7 @@
         <v>0.192</v>
       </c>
       <c r="B194">
-        <v>176.8903783869194</v>
+        <v>176.89</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1956,7 +1968,7 @@
         <v>0.193</v>
       </c>
       <c r="B195">
-        <v>177.2336365821587</v>
+        <v>177.234</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1964,7 +1976,7 @@
         <v>0.194</v>
       </c>
       <c r="B196">
-        <v>177.48249143435</v>
+        <v>177.482</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1972,7 +1984,7 @@
         <v>0.195</v>
       </c>
       <c r="B197">
-        <v>177.6461328168375</v>
+        <v>177.646</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1980,7 +1992,7 @@
         <v>0.196</v>
       </c>
       <c r="B198">
-        <v>177.7360087859401</v>
+        <v>177.736</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1988,7 +2000,7 @@
         <v>0.197</v>
       </c>
       <c r="B199">
-        <v>177.7648410493615</v>
+        <v>177.765</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1996,7 +2008,7 @@
         <v>0.198</v>
       </c>
       <c r="B200">
-        <v>177.7460977069316</v>
+        <v>177.746</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2004,7 +2016,7 @@
         <v>0.199</v>
       </c>
       <c r="B201">
-        <v>177.6933330203432</v>
+        <v>177.693</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2012,7 +2024,7 @@
         <v>0.2</v>
       </c>
       <c r="B202">
-        <v>177.61951431417</v>
+        <v>177.62</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2020,7 +2032,7 @@
         <v>0.201</v>
       </c>
       <c r="B203">
-        <v>177.5366929622825</v>
+        <v>177.537</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2028,7 +2040,7 @@
         <v>0.202</v>
       </c>
       <c r="B204">
-        <v>177.4555995916877</v>
+        <v>177.456</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2036,7 +2048,7 @@
         <v>0.203</v>
       </c>
       <c r="B205">
-        <v>177.3854008142316</v>
+        <v>177.385</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2044,7 +2056,7 @@
         <v>0.204</v>
       </c>
       <c r="B206">
-        <v>177.3334849269883</v>
+        <v>177.333</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2052,7 +2064,7 @@
         <v>0.205</v>
       </c>
       <c r="B207">
-        <v>177.3055487284146</v>
+        <v>177.306</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2060,7 +2072,7 @@
         <v>0.206</v>
       </c>
       <c r="B208">
-        <v>177.3056402688983</v>
+        <v>177.306</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2068,7 +2080,7 @@
         <v>0.207</v>
       </c>
       <c r="B209">
-        <v>177.3362986111538</v>
+        <v>177.336</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2076,7 +2088,7 @@
         <v>0.208</v>
       </c>
       <c r="B210">
-        <v>177.3986934237453</v>
+        <v>177.399</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2084,7 +2096,7 @@
         <v>0.209</v>
       </c>
       <c r="B211">
-        <v>177.492770890838</v>
+        <v>177.493</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2092,7 +2104,7 @@
         <v>0.21</v>
       </c>
       <c r="B212">
-        <v>177.6171790521168</v>
+        <v>177.617</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2100,7 +2112,7 @@
         <v>0.211</v>
       </c>
       <c r="B213">
-        <v>177.7696474051829</v>
+        <v>177.77</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2108,7 +2120,7 @@
         <v>0.212</v>
       </c>
       <c r="B214">
-        <v>177.9469096265239</v>
+        <v>177.947</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2116,7 +2128,7 @@
         <v>0.213</v>
       </c>
       <c r="B215">
-        <v>178.144728809869</v>
+        <v>178.145</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2124,7 +2136,7 @@
         <v>0.214</v>
       </c>
       <c r="B216">
-        <v>178.3579017122811</v>
+        <v>178.358</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2132,7 +2144,7 @@
         <v>0.215</v>
       </c>
       <c r="B217">
-        <v>178.5802367863118</v>
+        <v>178.58</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2140,7 +2152,7 @@
         <v>0.216</v>
       </c>
       <c r="B218">
-        <v>178.8044729116949</v>
+        <v>178.804</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2148,7 +2160,7 @@
         <v>0.217</v>
       </c>
       <c r="B219">
-        <v>179.0226232982446</v>
+        <v>179.023</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2156,7 +2168,7 @@
         <v>0.218</v>
       </c>
       <c r="B220">
-        <v>179.2259945035503</v>
+        <v>179.226</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2164,7 +2176,7 @@
         <v>0.219</v>
       </c>
       <c r="B221">
-        <v>179.4054608027991</v>
+        <v>179.405</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2172,7 +2184,7 @@
         <v>0.22</v>
       </c>
       <c r="B222">
-        <v>179.551857071864</v>
+        <v>179.552</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2180,7 +2192,7 @@
         <v>0.221</v>
       </c>
       <c r="B223">
-        <v>179.6564850453335</v>
+        <v>179.656</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2188,7 +2200,7 @@
         <v>0.222</v>
       </c>
       <c r="B224">
-        <v>179.7117075016307</v>
+        <v>179.712</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2196,7 +2208,7 @@
         <v>0.223</v>
       </c>
       <c r="B225">
-        <v>179.7115847076259</v>
+        <v>179.712</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2204,7 +2216,7 @@
         <v>0.224</v>
       </c>
       <c r="B226">
-        <v>179.6524910948961</v>
+        <v>179.652</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2212,7 +2224,7 @@
         <v>0.225</v>
       </c>
       <c r="B227">
-        <v>179.533640734662</v>
+        <v>179.534</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2220,7 +2232,7 @@
         <v>0.226</v>
       </c>
       <c r="B228">
-        <v>179.3574502427787</v>
+        <v>179.357</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2228,7 +2240,7 @@
         <v>0.227</v>
       </c>
       <c r="B229">
-        <v>179.1296781748953</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2236,7 +2248,7 @@
         <v>0.228</v>
       </c>
       <c r="B230">
-        <v>178.8593002352112</v>
+        <v>178.859</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2244,7 +2256,7 @@
         <v>0.229</v>
       </c>
       <c r="B231">
-        <v>178.5581073935084</v>
+        <v>178.558</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2252,7 +2264,7 @@
         <v>0.23</v>
       </c>
       <c r="B232">
-        <v>178.2400458886137</v>
+        <v>178.24</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2260,7 +2272,7 @@
         <v>0.231</v>
       </c>
       <c r="B233">
-        <v>177.9203495596046</v>
+        <v>177.92</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2268,7 +2280,7 @@
         <v>0.232</v>
       </c>
       <c r="B234">
-        <v>177.6145934167114</v>
+        <v>177.615</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2276,7 +2288,7 @@
         <v>0.233</v>
       </c>
       <c r="B235">
-        <v>177.337639411952</v>
+        <v>177.338</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2284,7 +2296,7 @@
         <v>0.234</v>
       </c>
       <c r="B236">
-        <v>177.1026097635517</v>
+        <v>177.103</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2292,7 +2304,7 @@
         <v>0.235</v>
       </c>
       <c r="B237">
-        <v>176.9201189610416</v>
+        <v>176.92</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2300,7 +2312,7 @@
         <v>0.236</v>
       </c>
       <c r="B238">
-        <v>176.7977056383956</v>
+        <v>176.798</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2308,7 +2320,7 @@
         <v>0.237</v>
       </c>
       <c r="B239">
-        <v>176.7395510675334</v>
+        <v>176.74</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2316,7 +2328,7 @@
         <v>0.238</v>
       </c>
       <c r="B240">
-        <v>176.7464624886416</v>
+        <v>176.746</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2324,7 +2336,7 @@
         <v>0.239</v>
       </c>
       <c r="B241">
-        <v>176.8161056021946</v>
+        <v>176.816</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2332,7 +2344,7 @@
         <v>0.24</v>
       </c>
       <c r="B242">
-        <v>176.9434274875645</v>
+        <v>176.943</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2340,7 +2352,7 @@
         <v>0.241</v>
       </c>
       <c r="B243">
-        <v>177.1211221969196</v>
+        <v>177.121</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2348,7 +2360,7 @@
         <v>0.242</v>
       </c>
       <c r="B244">
-        <v>177.3403249937278</v>
+        <v>177.34</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2356,7 +2368,7 @@
         <v>0.243</v>
       </c>
       <c r="B245">
-        <v>177.5910773743028</v>
+        <v>177.591</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2364,7 +2376,7 @@
         <v>0.244</v>
       </c>
       <c r="B246">
-        <v>177.8627122967906</v>
+        <v>177.863</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2372,7 +2384,7 @@
         <v>0.245</v>
       </c>
       <c r="B247">
-        <v>178.1442687031026</v>
+        <v>178.144</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2380,7 +2392,7 @@
         <v>0.246</v>
       </c>
       <c r="B248">
-        <v>178.4246441808244</v>
+        <v>178.425</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2388,7 +2400,7 @@
         <v>0.247</v>
       </c>
       <c r="B249">
-        <v>178.692715002508</v>
+        <v>178.693</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2396,7 +2408,7 @@
         <v>0.248</v>
       </c>
       <c r="B250">
-        <v>178.9374264801954</v>
+        <v>178.937</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2404,7 +2416,7 @@
         <v>0.249</v>
       </c>
       <c r="B251">
-        <v>179.1479259723797</v>
+        <v>179.148</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2412,7 +2424,7 @@
         <v>0.25</v>
       </c>
       <c r="B252">
-        <v>179.3138629131144</v>
+        <v>179.314</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2420,7 +2432,7 @@
         <v>0.251</v>
       </c>
       <c r="B253">
-        <v>179.425582461546</v>
+        <v>179.426</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2428,7 +2440,7 @@
         <v>0.252</v>
       </c>
       <c r="B254">
-        <v>179.4745910544037</v>
+        <v>179.475</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2436,7 +2448,7 @@
         <v>0.253</v>
       </c>
       <c r="B255">
-        <v>179.4540343543925</v>
+        <v>179.454</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2444,7 +2456,7 @@
         <v>0.254</v>
       </c>
       <c r="B256">
-        <v>179.3595340781294</v>
+        <v>179.36</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2452,7 +2464,7 @@
         <v>0.255</v>
       </c>
       <c r="B257">
-        <v>179.1895481835249</v>
+        <v>179.19</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2460,7 +2472,7 @@
         <v>0.256</v>
       </c>
       <c r="B258">
-        <v>178.9457356963883</v>
+        <v>178.946</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2468,7 +2480,7 @@
         <v>0.257</v>
       </c>
       <c r="B259">
-        <v>178.6331063272131</v>
+        <v>178.633</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2476,7 +2488,7 @@
         <v>0.258</v>
       </c>
       <c r="B260">
-        <v>178.2599866651745</v>
+        <v>178.26</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2484,7 +2496,7 @@
         <v>0.259</v>
       </c>
       <c r="B261">
-        <v>177.8375925702258</v>
+        <v>177.838</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2492,7 +2504,7 @@
         <v>0.26</v>
       </c>
       <c r="B262">
-        <v>177.379459369804</v>
+        <v>177.379</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2500,7 +2512,7 @@
         <v>0.261</v>
       </c>
       <c r="B263">
-        <v>176.9003253689006</v>
+        <v>176.9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2508,7 +2520,7 @@
         <v>0.262</v>
       </c>
       <c r="B264">
-        <v>176.4152383198228</v>
+        <v>176.415</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2516,7 +2528,7 @@
         <v>0.263</v>
       </c>
       <c r="B265">
-        <v>175.9385084927823</v>
+        <v>175.939</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2524,7 +2536,7 @@
         <v>0.264</v>
       </c>
       <c r="B266">
-        <v>175.4827474646253</v>
+        <v>175.483</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2532,7 +2544,7 @@
         <v>0.265</v>
       </c>
       <c r="B267">
-        <v>175.0580948685778</v>
+        <v>175.058</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2540,7 +2552,7 @@
         <v>0.266</v>
       </c>
       <c r="B268">
-        <v>174.6717132191066</v>
+        <v>174.672</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2548,7 +2560,7 @@
         <v>0.267</v>
       </c>
       <c r="B269">
-        <v>174.3275983015277</v>
+        <v>174.328</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2556,7 +2568,7 @@
         <v>0.268</v>
       </c>
       <c r="B270">
-        <v>174.0267913350037</v>
+        <v>174.027</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2564,7 +2576,7 @@
         <v>0.269</v>
       </c>
       <c r="B271">
-        <v>173.767669268007</v>
+        <v>173.768</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2572,7 +2584,7 @@
         <v>0.27</v>
       </c>
       <c r="B272">
-        <v>173.5466680953457</v>
+        <v>173.547</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2580,7 +2592,7 @@
         <v>0.271</v>
       </c>
       <c r="B273">
-        <v>173.3590874103355</v>
+        <v>173.359</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2588,7 +2600,7 @@
         <v>0.272</v>
       </c>
       <c r="B274">
-        <v>173.199916425475</v>
+        <v>173.2</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2596,7 +2608,7 @@
         <v>0.273</v>
       </c>
       <c r="B275">
-        <v>173.0645830347584</v>
+        <v>173.065</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2604,7 +2616,7 @@
         <v>0.274</v>
       </c>
       <c r="B276">
-        <v>172.9495321980903</v>
+        <v>172.95</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2612,7 +2624,7 @@
         <v>0.275</v>
       </c>
       <c r="B277">
-        <v>172.8525660292002</v>
+        <v>172.853</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2620,7 +2632,7 @@
         <v>0.276</v>
       </c>
       <c r="B278">
-        <v>172.7729124840611</v>
+        <v>172.773</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2628,7 +2640,7 @@
         <v>0.277</v>
       </c>
       <c r="B279">
-        <v>172.7110276094014</v>
+        <v>172.711</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2636,7 +2648,7 @@
         <v>0.278</v>
       </c>
       <c r="B280">
-        <v>172.6681723721225</v>
+        <v>172.668</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2644,7 +2656,7 @@
         <v>0.279</v>
       </c>
       <c r="B281">
-        <v>172.6457765951838</v>
+        <v>172.646</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2652,7 +2664,7 @@
         <v>0.28</v>
       </c>
       <c r="B282">
-        <v>172.6448547097784</v>
+        <v>172.645</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2660,7 +2672,7 @@
         <v>0.281</v>
       </c>
       <c r="B283">
-        <v>172.6654208542286</v>
+        <v>172.665</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2668,7 +2680,7 @@
         <v>0.282</v>
       </c>
       <c r="B284">
-        <v>172.7058796896966</v>
+        <v>172.706</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2676,7 +2688,7 @@
         <v>0.283</v>
       </c>
       <c r="B285">
-        <v>172.7627262389344</v>
+        <v>172.763</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2684,7 +2696,7 @@
         <v>0.284</v>
       </c>
       <c r="B286">
-        <v>172.8305579777962</v>
+        <v>172.831</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2692,7 +2704,7 @@
         <v>0.285</v>
       </c>
       <c r="B287">
-        <v>172.9022519801896</v>
+        <v>172.902</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2700,7 +2712,7 @@
         <v>0.286</v>
       </c>
       <c r="B288">
-        <v>172.9692251211202</v>
+        <v>172.969</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2708,7 +2720,7 @@
         <v>0.287</v>
       </c>
       <c r="B289">
-        <v>173.0221123451873</v>
+        <v>173.022</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2716,7 +2728,7 @@
         <v>0.288</v>
       </c>
       <c r="B290">
-        <v>173.0514005207426</v>
+        <v>173.051</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2724,7 +2736,7 @@
         <v>0.289</v>
       </c>
       <c r="B291">
-        <v>173.0487980117469</v>
+        <v>173.049</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2732,7 +2744,7 @@
         <v>0.29</v>
       </c>
       <c r="B292">
-        <v>173.0075468987332</v>
+        <v>173.008</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2740,7 +2752,7 @@
         <v>0.291</v>
       </c>
       <c r="B293">
-        <v>172.9231269468805</v>
+        <v>172.923</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2748,7 +2760,7 @@
         <v>0.292</v>
       </c>
       <c r="B294">
-        <v>172.7932997169216</v>
+        <v>172.793</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2756,7 +2768,7 @@
         <v>0.293</v>
       </c>
       <c r="B295">
-        <v>172.6192295978897</v>
+        <v>172.619</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2764,7 +2776,7 @@
         <v>0.294</v>
       </c>
       <c r="B296">
-        <v>172.4052590183946</v>
+        <v>172.405</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2772,7 +2784,7 @@
         <v>0.295</v>
       </c>
       <c r="B297">
-        <v>172.158527775539</v>
+        <v>172.159</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2780,7 +2792,7 @@
         <v>0.296</v>
       </c>
       <c r="B298">
-        <v>171.8878663031139</v>
+        <v>171.888</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2788,7 +2800,7 @@
         <v>0.297</v>
       </c>
       <c r="B299">
-        <v>171.6031374076819</v>
+        <v>171.603</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2796,7 +2808,7 @@
         <v>0.298</v>
       </c>
       <c r="B300">
-        <v>171.3143175090214</v>
+        <v>171.314</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2804,7 +2816,7 @@
         <v>0.299</v>
       </c>
       <c r="B301">
-        <v>171.0305199021346</v>
+        <v>171.031</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2812,7 +2824,7 @@
         <v>0.3</v>
       </c>
       <c r="B302">
-        <v>170.7592069196963</v>
+        <v>170.759</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2820,7 +2832,7 @@
         <v>0.301</v>
       </c>
       <c r="B303">
-        <v>170.5056570789148</v>
+        <v>170.506</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2828,7 +2840,7 @@
         <v>0.302</v>
       </c>
       <c r="B304">
-        <v>170.2726130778082</v>
+        <v>170.273</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2836,7 +2848,7 @@
         <v>0.303</v>
       </c>
       <c r="B305">
-        <v>170.0605281527769</v>
+        <v>170.061</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2844,7 +2856,7 @@
         <v>0.304</v>
       </c>
       <c r="B306">
-        <v>169.8680559097983</v>
+        <v>169.868</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2852,7 +2864,7 @@
         <v>0.305</v>
       </c>
       <c r="B307">
-        <v>169.6928020292921</v>
+        <v>169.693</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2860,7 +2872,7 @@
         <v>0.306</v>
       </c>
       <c r="B308">
-        <v>169.5322308878224</v>
+        <v>169.532</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2868,7 +2880,7 @@
         <v>0.307</v>
       </c>
       <c r="B309">
-        <v>169.3845620612765</v>
+        <v>169.385</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2876,7 +2888,7 @@
         <v>0.308</v>
       </c>
       <c r="B310">
-        <v>169.2494146727813</v>
+        <v>169.249</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2884,7 +2896,7 @@
         <v>0.309</v>
       </c>
       <c r="B311">
-        <v>169.1282779642528</v>
+        <v>169.128</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2892,7 +2904,7 @@
         <v>0.31</v>
       </c>
       <c r="B312">
-        <v>169.024553615897</v>
+        <v>169.025</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2900,7 +2912,7 @@
         <v>0.311</v>
       </c>
       <c r="B313">
-        <v>168.9431842666671</v>
+        <v>168.943</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2908,7 +2920,7 @@
         <v>0.312</v>
       </c>
       <c r="B314">
-        <v>168.889900651018</v>
+        <v>168.89</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2916,7 +2928,7 @@
         <v>0.313</v>
       </c>
       <c r="B315">
-        <v>168.8701814700829</v>
+        <v>168.87</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2924,7 +2936,7 @@
         <v>0.314</v>
       </c>
       <c r="B316">
-        <v>168.8880657999401</v>
+        <v>168.888</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2932,7 +2944,7 @@
         <v>0.315</v>
       </c>
       <c r="B317">
-        <v>168.9449204787839</v>
+        <v>168.945</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2940,7 +2952,7 @@
         <v>0.316</v>
       </c>
       <c r="B318">
-        <v>169.0386403566543</v>
+        <v>169.039</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2948,7 +2960,7 @@
         <v>0.317</v>
       </c>
       <c r="B319">
-        <v>169.162961560726</v>
+        <v>169.163</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2956,7 +2968,7 @@
         <v>0.318</v>
       </c>
       <c r="B320">
-        <v>169.3072423232709</v>
+        <v>169.307</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2964,7 +2976,7 @@
         <v>0.319</v>
       </c>
       <c r="B321">
-        <v>169.4569728123232</v>
+        <v>169.457</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2972,7 +2984,7 @@
         <v>0.32</v>
       </c>
       <c r="B322">
-        <v>169.5945756851264</v>
+        <v>169.595</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2980,7 +2992,7 @@
         <v>0.321</v>
       </c>
       <c r="B323">
-        <v>169.7006660476894</v>
+        <v>169.701</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2988,7 +3000,7 @@
         <v>0.322</v>
       </c>
       <c r="B324">
-        <v>169.7555916354521</v>
+        <v>169.756</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2996,7 +3008,7 @@
         <v>0.323</v>
       </c>
       <c r="B325">
-        <v>169.7410746039581</v>
+        <v>169.741</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3004,7 +3016,7 @@
         <v>0.324</v>
       </c>
       <c r="B326">
-        <v>169.6417728661187</v>
+        <v>169.642</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3012,7 +3024,7 @@
         <v>0.325</v>
       </c>
       <c r="B327">
-        <v>169.4465907832684</v>
+        <v>169.447</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3020,7 +3032,7 @@
         <v>0.326</v>
       </c>
       <c r="B328">
-        <v>169.149602639277</v>
+        <v>169.15</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3028,7 +3040,7 @@
         <v>0.327</v>
       </c>
       <c r="B329">
-        <v>168.7504299996263</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3036,7 +3048,7 @@
         <v>0.328</v>
       </c>
       <c r="B330">
-        <v>168.2541211074512</v>
+        <v>168.254</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3044,7 +3056,7 @@
         <v>0.329</v>
       </c>
       <c r="B331">
-        <v>167.6710023950071</v>
+        <v>167.671</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3052,7 +3064,7 @@
         <v>0.33</v>
       </c>
       <c r="B332">
-        <v>167.015490823886</v>
+        <v>167.015</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3060,7 +3072,7 @@
         <v>0.331</v>
       </c>
       <c r="B333">
-        <v>166.3048824589635</v>
+        <v>166.305</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3068,7 +3080,7 @@
         <v>0.332</v>
       </c>
       <c r="B334">
-        <v>165.5588026940217</v>
+        <v>165.559</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3076,7 +3088,7 @@
         <v>0.333</v>
       </c>
       <c r="B335">
-        <v>164.7961896775203</v>
+        <v>164.796</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3084,7 +3096,7 @@
         <v>0.334</v>
       </c>
       <c r="B336">
-        <v>164.0355141919798</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3092,7 +3104,7 @@
         <v>0.335</v>
       </c>
       <c r="B337">
-        <v>163.294059597039</v>
+        <v>163.294</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3100,7 +3112,7 @@
         <v>0.336</v>
       </c>
       <c r="B338">
-        <v>162.5885724886525</v>
+        <v>162.589</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3108,7 +3120,7 @@
         <v>0.337</v>
       </c>
       <c r="B339">
-        <v>161.9313979910152</v>
+        <v>161.931</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3116,7 +3128,7 @@
         <v>0.338</v>
       </c>
       <c r="B340">
-        <v>161.335251652214</v>
+        <v>161.335</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3124,7 +3136,7 @@
         <v>0.339</v>
       </c>
       <c r="B341">
-        <v>160.8087689453143</v>
+        <v>160.809</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3132,7 +3144,7 @@
         <v>0.34</v>
       </c>
       <c r="B342">
-        <v>160.3604268381408</v>
+        <v>160.36</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3140,7 +3152,7 @@
         <v>0.341</v>
       </c>
       <c r="B343">
-        <v>159.9980040747581</v>
+        <v>159.998</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3148,7 +3160,7 @@
         <v>0.342</v>
       </c>
       <c r="B344">
-        <v>159.7284744795152</v>
+        <v>159.728</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3156,7 +3168,7 @@
         <v>0.343</v>
       </c>
       <c r="B345">
-        <v>159.5573105816775</v>
+        <v>159.557</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3164,7 +3176,7 @@
         <v>0.344</v>
       </c>
       <c r="B346">
-        <v>159.488365645803</v>
+        <v>159.488</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3172,7 +3184,7 @@
         <v>0.345</v>
       </c>
       <c r="B347">
-        <v>159.5231733849419</v>
+        <v>159.523</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3180,7 +3192,7 @@
         <v>0.346</v>
       </c>
       <c r="B348">
-        <v>159.6606975196201</v>
+        <v>159.661</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3188,7 +3200,7 @@
         <v>0.347</v>
       </c>
       <c r="B349">
-        <v>159.8964145623274</v>
+        <v>159.896</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3196,7 +3208,7 @@
         <v>0.348</v>
       </c>
       <c r="B350">
-        <v>160.2217161251951</v>
+        <v>160.222</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3204,7 +3216,7 @@
         <v>0.349</v>
       </c>
       <c r="B351">
-        <v>160.6234973343558</v>
+        <v>160.623</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3212,7 +3224,7 @@
         <v>0.35</v>
       </c>
       <c r="B352">
-        <v>161.0843567321608</v>
+        <v>161.084</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3220,7 +3232,7 @@
         <v>0.351</v>
       </c>
       <c r="B353">
-        <v>161.5829477749648</v>
+        <v>161.583</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3228,7 +3240,7 @@
         <v>0.352</v>
       </c>
       <c r="B354">
-        <v>162.0950854383204</v>
+        <v>162.095</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3236,7 +3248,7 @@
         <v>0.353</v>
       </c>
       <c r="B355">
-        <v>162.595123899754</v>
+        <v>162.595</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3244,7 +3256,7 @@
         <v>0.354</v>
       </c>
       <c r="B356">
-        <v>163.0574194095624</v>
+        <v>163.057</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3252,7 +3264,7 @@
         <v>0.355</v>
       </c>
       <c r="B357">
-        <v>163.4581759580622</v>
+        <v>163.458</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3260,7 +3272,7 @@
         <v>0.356</v>
       </c>
       <c r="B358">
-        <v>163.7772977868879</v>
+        <v>163.777</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3268,7 +3280,7 @@
         <v>0.357</v>
       </c>
       <c r="B359">
-        <v>163.9999693963668</v>
+        <v>164</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3276,7 +3288,7 @@
         <v>0.358</v>
       </c>
       <c r="B360">
-        <v>164.1178409729726</v>
+        <v>164.118</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3284,7 +3296,7 @@
         <v>0.359</v>
       </c>
       <c r="B361">
-        <v>164.1296728017189</v>
+        <v>164.13</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3292,7 +3304,7 @@
         <v>0.36</v>
       </c>
       <c r="B362">
-        <v>164.0413475135946</v>
+        <v>164.041</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3300,7 +3312,7 @@
         <v>0.361</v>
       </c>
       <c r="B363">
-        <v>163.8651854839408</v>
+        <v>163.865</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3308,7 +3320,7 @@
         <v>0.362</v>
       </c>
       <c r="B364">
-        <v>163.6185871931702</v>
+        <v>163.619</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3316,7 +3328,7 @@
         <v>0.363</v>
       </c>
       <c r="B365">
-        <v>163.3226294054659</v>
+        <v>163.323</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3324,7 +3336,7 @@
         <v>0.364</v>
       </c>
       <c r="B366">
-        <v>162.9998303091044</v>
+        <v>163</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3332,7 +3344,7 @@
         <v>0.365</v>
       </c>
       <c r="B367">
-        <v>162.6721045736354</v>
+        <v>162.672</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3340,7 +3352,7 @@
         <v>0.366</v>
       </c>
       <c r="B368">
-        <v>162.3586222573024</v>
+        <v>162.359</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3348,7 +3360,7 @@
         <v>0.367</v>
       </c>
       <c r="B369">
-        <v>162.07430716082</v>
+        <v>162.074</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3356,7 +3368,7 @@
         <v>0.368</v>
       </c>
       <c r="B370">
-        <v>161.8286944930809</v>
+        <v>161.829</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3364,7 +3376,7 @@
         <v>0.369</v>
       </c>
       <c r="B371">
-        <v>161.6254357255708</v>
+        <v>161.625</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3372,7 +3384,7 @@
         <v>0.37</v>
       </c>
       <c r="B372">
-        <v>161.4625743317291</v>
+        <v>161.463</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3380,7 +3392,7 @@
         <v>0.371</v>
       </c>
       <c r="B373">
-        <v>161.3333963910973</v>
+        <v>161.333</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3388,7 +3400,7 @@
         <v>0.372</v>
       </c>
       <c r="B374">
-        <v>161.2277959399679</v>
+        <v>161.228</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3396,7 +3408,7 @@
         <v>0.373</v>
       </c>
       <c r="B375">
-        <v>161.1340635475886</v>
+        <v>161.134</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3404,7 +3416,7 @@
         <v>0.374</v>
       </c>
       <c r="B376">
-        <v>161.040641542218</v>
+        <v>161.041</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3412,7 +3424,7 @@
         <v>0.375</v>
       </c>
       <c r="B377">
-        <v>160.9378931873736</v>
+        <v>160.938</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3420,7 +3432,7 @@
         <v>0.376</v>
       </c>
       <c r="B378">
-        <v>160.8196393553228</v>
+        <v>160.82</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3428,7 +3440,7 @@
         <v>0.377</v>
       </c>
       <c r="B379">
-        <v>160.6846099829868</v>
+        <v>160.685</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3436,7 +3448,7 @@
         <v>0.378</v>
       </c>
       <c r="B380">
-        <v>160.5364125143789</v>
+        <v>160.536</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3444,7 +3456,7 @@
         <v>0.379</v>
       </c>
       <c r="B381">
-        <v>160.3826445855603</v>
+        <v>160.383</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3452,7 +3464,7 @@
         <v>0.38</v>
       </c>
       <c r="B382">
-        <v>160.2353878507796</v>
+        <v>160.235</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3460,7 +3472,7 @@
         <v>0.381</v>
       </c>
       <c r="B383">
-        <v>160.1102180782358</v>
+        <v>160.11</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3468,7 +3480,7 @@
         <v>0.382</v>
       </c>
       <c r="B384">
-        <v>160.0232127322088</v>
+        <v>160.023</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3476,7 +3488,7 @@
         <v>0.383</v>
       </c>
       <c r="B385">
-        <v>159.9920801885513</v>
+        <v>159.992</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3484,7 +3496,7 @@
         <v>0.384</v>
       </c>
       <c r="B386">
-        <v>160.0328825274904</v>
+        <v>160.033</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3492,7 +3504,7 @@
         <v>0.385</v>
       </c>
       <c r="B387">
-        <v>160.1583511502265</v>
+        <v>160.158</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3500,7 +3512,7 @@
         <v>0.386</v>
       </c>
       <c r="B388">
-        <v>160.3759735177221</v>
+        <v>160.376</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3508,7 +3520,7 @@
         <v>0.387</v>
       </c>
       <c r="B389">
-        <v>160.6898178939198</v>
+        <v>160.69</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3516,7 +3528,7 @@
         <v>0.388</v>
       </c>
       <c r="B390">
-        <v>161.0959699897761</v>
+        <v>161.096</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3524,7 +3536,7 @@
         <v>0.389</v>
       </c>
       <c r="B391">
-        <v>161.5866629946867</v>
+        <v>161.587</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3532,7 +3544,7 @@
         <v>0.39</v>
       </c>
       <c r="B392">
-        <v>162.1474265972373</v>
+        <v>162.147</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3540,7 +3552,7 @@
         <v>0.391</v>
       </c>
       <c r="B393">
-        <v>162.7592997800942</v>
+        <v>162.759</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3548,7 +3560,7 @@
         <v>0.392</v>
       </c>
       <c r="B394">
-        <v>163.4005978172758</v>
+        <v>163.401</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3556,7 +3568,7 @@
         <v>0.393</v>
       </c>
       <c r="B395">
-        <v>164.0481629509901</v>
+        <v>164.048</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3564,7 +3576,7 @@
         <v>0.394</v>
       </c>
       <c r="B396">
-        <v>164.6789401208516</v>
+        <v>164.679</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3572,7 +3584,7 @@
         <v>0.395</v>
       </c>
       <c r="B397">
-        <v>165.2715051386202</v>
+        <v>165.272</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3580,7 +3592,7 @@
         <v>0.396</v>
       </c>
       <c r="B398">
-        <v>165.8073979870769</v>
+        <v>165.807</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3588,7 +3600,7 @@
         <v>0.397</v>
       </c>
       <c r="B399">
-        <v>166.2720639126332</v>
+        <v>166.272</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3596,7 +3608,7 @@
         <v>0.398</v>
       </c>
       <c r="B400">
-        <v>166.6554130576737</v>
+        <v>166.655</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3604,7 +3616,7 @@
         <v>0.399</v>
       </c>
       <c r="B401">
-        <v>166.9520954048485</v>
+        <v>166.952</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3612,7 +3624,7 @@
         <v>0.4</v>
       </c>
       <c r="B402">
-        <v>167.1613503602933</v>
+        <v>167.161</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3620,7 +3632,7 @@
         <v>0.401</v>
       </c>
       <c r="B403">
-        <v>167.2863448911695</v>
+        <v>167.286</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3628,7 +3640,7 @@
         <v>0.402</v>
       </c>
       <c r="B404">
-        <v>167.3337340035491</v>
+        <v>167.334</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3636,7 +3648,7 @@
         <v>0.403</v>
       </c>
       <c r="B405">
-        <v>167.3129176182348</v>
+        <v>167.313</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3644,7 +3656,7 @@
         <v>0.404</v>
       </c>
       <c r="B406">
-        <v>167.235590502231</v>
+        <v>167.236</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3652,7 +3664,7 @@
         <v>0.405</v>
       </c>
       <c r="B407">
-        <v>167.1151204381325</v>
+        <v>167.115</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3660,7 +3672,7 @@
         <v>0.406</v>
       </c>
       <c r="B408">
-        <v>166.9659460615046</v>
+        <v>166.966</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3668,7 +3680,7 @@
         <v>0.407</v>
       </c>
       <c r="B409">
-        <v>166.8030658071897</v>
+        <v>166.803</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3676,7 +3688,7 @@
         <v>0.408</v>
       </c>
       <c r="B410">
-        <v>166.6415278151268</v>
+        <v>166.642</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3684,7 +3696,7 @@
         <v>0.409</v>
       </c>
       <c r="B411">
-        <v>166.4958819493434</v>
+        <v>166.496</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3692,7 +3704,7 @@
         <v>0.41</v>
       </c>
       <c r="B412">
-        <v>166.3795637628328</v>
+        <v>166.38</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3700,7 +3712,7 @@
         <v>0.411</v>
       </c>
       <c r="B413">
-        <v>166.3041436234898</v>
+        <v>166.304</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3708,7 +3720,7 @@
         <v>0.412</v>
       </c>
       <c r="B414">
-        <v>166.2787823914432</v>
+        <v>166.279</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3716,7 +3728,7 @@
         <v>0.413</v>
       </c>
       <c r="B415">
-        <v>166.3092486317353</v>
+        <v>166.309</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3724,7 +3736,7 @@
         <v>0.414</v>
       </c>
       <c r="B416">
-        <v>166.397304152096</v>
+        <v>166.397</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3732,7 +3744,7 @@
         <v>0.415</v>
       </c>
       <c r="B417">
-        <v>166.540175508736</v>
+        <v>166.54</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3740,7 +3752,7 @@
         <v>0.416</v>
       </c>
       <c r="B418">
-        <v>166.730288409323</v>
+        <v>166.73</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3748,7 +3760,7 @@
         <v>0.417</v>
       </c>
       <c r="B419">
-        <v>166.955306069447</v>
+        <v>166.955</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3756,7 +3768,7 @@
         <v>0.418</v>
       </c>
       <c r="B420">
-        <v>167.1986740945803</v>
+        <v>167.199</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3764,7 +3776,7 @@
         <v>0.419</v>
       </c>
       <c r="B421">
-        <v>167.4406082654032</v>
+        <v>167.441</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3772,7 +3784,7 @@
         <v>0.42</v>
       </c>
       <c r="B422">
-        <v>167.6591210946036</v>
+        <v>167.659</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3780,7 +3792,7 @@
         <v>0.421</v>
       </c>
       <c r="B423">
-        <v>167.8322526405275</v>
+        <v>167.832</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3788,7 +3800,7 @@
         <v>0.422</v>
       </c>
       <c r="B424">
-        <v>167.9398243528919</v>
+        <v>167.94</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3796,7 +3808,7 @@
         <v>0.423</v>
       </c>
       <c r="B425">
-        <v>167.9659738393404</v>
+        <v>167.966</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3804,7 +3816,7 @@
         <v>0.424</v>
       </c>
       <c r="B426">
-        <v>167.8993319230571</v>
+        <v>167.899</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3812,7 +3824,7 @@
         <v>0.425</v>
       </c>
       <c r="B427">
-        <v>167.7351538350623</v>
+        <v>167.735</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3820,7 +3832,7 @@
         <v>0.426</v>
       </c>
       <c r="B428">
-        <v>167.4759853479104</v>
+        <v>167.476</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3828,7 +3840,7 @@
         <v>0.427</v>
       </c>
       <c r="B429">
-        <v>167.132705462544</v>
+        <v>167.133</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3836,7 +3848,7 @@
         <v>0.428</v>
       </c>
       <c r="B430">
-        <v>166.7241465381595</v>
+        <v>166.724</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3844,7 +3856,7 @@
         <v>0.429</v>
       </c>
       <c r="B431">
-        <v>166.2761860245263</v>
+        <v>166.276</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3852,7 +3864,7 @@
         <v>0.43</v>
       </c>
       <c r="B432">
-        <v>165.8182083482975</v>
+        <v>165.818</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3860,7 +3872,7 @@
         <v>0.431</v>
       </c>
       <c r="B433">
-        <v>165.3816118091133</v>
+        <v>165.382</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3868,7 +3880,7 @@
         <v>0.432</v>
       </c>
       <c r="B434">
-        <v>164.9976355204907</v>
+        <v>164.998</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3876,7 +3888,7 @@
         <v>0.433</v>
       </c>
       <c r="B435">
-        <v>164.6937078204213</v>
+        <v>164.694</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3884,7 +3896,7 @@
         <v>0.434</v>
       </c>
       <c r="B436">
-        <v>164.4915699791192</v>
+        <v>164.492</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3892,7 +3904,7 @@
         <v>0.435</v>
       </c>
       <c r="B437">
-        <v>164.4052507572267</v>
+        <v>164.405</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3900,7 +3912,7 @@
         <v>0.436</v>
       </c>
       <c r="B438">
-        <v>164.4393959935553</v>
+        <v>164.439</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3908,7 +3920,7 @@
         <v>0.437</v>
       </c>
       <c r="B439">
-        <v>164.5899667306905</v>
+        <v>164.59</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3916,7 +3928,7 @@
         <v>0.438</v>
       </c>
       <c r="B440">
-        <v>164.8439992313368</v>
+        <v>164.844</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3924,7 +3936,7 @@
         <v>0.439</v>
       </c>
       <c r="B441">
-        <v>165.1810225586648</v>
+        <v>165.181</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3932,7 +3944,7 @@
         <v>0.44</v>
       </c>
       <c r="B442">
-        <v>165.5753136788045</v>
+        <v>165.575</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3940,7 +3952,7 @@
         <v>0.441</v>
       </c>
       <c r="B443">
-        <v>165.9978874495405</v>
+        <v>165.998</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3948,7 +3960,7 @@
         <v>0.442</v>
       </c>
       <c r="B444">
-        <v>166.4192843355895</v>
+        <v>166.419</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3956,7 +3968,7 @@
         <v>0.443</v>
       </c>
       <c r="B445">
-        <v>166.8122726035808</v>
+        <v>166.812</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3964,7 +3976,7 @@
         <v>0.444</v>
       </c>
       <c r="B446">
-        <v>167.1541690533843</v>
+        <v>167.154</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3972,7 +3984,7 @@
         <v>0.445</v>
       </c>
       <c r="B447">
-        <v>167.4285870961955</v>
+        <v>167.429</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3980,7 +3992,7 @@
         <v>0.446</v>
       </c>
       <c r="B448">
-        <v>167.6265167864524</v>
+        <v>167.627</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3988,7 +4000,7 @@
         <v>0.447</v>
       </c>
       <c r="B449">
-        <v>167.746644415615</v>
+        <v>167.747</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3996,7 +4008,7 @@
         <v>0.448</v>
       </c>
       <c r="B450">
-        <v>167.7947559024097</v>
+        <v>167.795</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4004,7 +4016,7 @@
         <v>0.449</v>
       </c>
       <c r="B451">
-        <v>167.7824800837219</v>
+        <v>167.782</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4012,7 +4024,7 @@
         <v>0.45</v>
       </c>
       <c r="B452">
-        <v>167.7252899203558</v>
+        <v>167.725</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4020,7 +4032,7 @@
         <v>0.451</v>
       </c>
       <c r="B453">
-        <v>167.640729786448</v>
+        <v>167.641</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4028,7 +4040,7 @@
         <v>0.452</v>
       </c>
       <c r="B454">
-        <v>167.5461416350933</v>
+        <v>167.546</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4036,7 +4048,7 @@
         <v>0.453</v>
       </c>
       <c r="B455">
-        <v>167.4566857838011</v>
+        <v>167.457</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4044,7 +4056,7 @@
         <v>0.454</v>
       </c>
       <c r="B456">
-        <v>167.383827990513</v>
+        <v>167.384</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4052,7 +4064,7 @@
         <v>0.455</v>
       </c>
       <c r="B457">
-        <v>167.3344451630406</v>
+        <v>167.334</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4060,7 +4072,7 @@
         <v>0.456</v>
       </c>
       <c r="B458">
-        <v>167.3105377645099</v>
+        <v>167.311</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4068,7 +4080,7 @@
         <v>0.457</v>
       </c>
       <c r="B459">
-        <v>167.3095750063084</v>
+        <v>167.31</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4076,7 +4088,7 @@
         <v>0.458</v>
       </c>
       <c r="B460">
-        <v>167.3254656180434</v>
+        <v>167.325</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4084,7 +4096,7 @@
         <v>0.459</v>
       </c>
       <c r="B461">
-        <v>167.3498728353409</v>
+        <v>167.35</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4092,7 +4104,7 @@
         <v>0.46</v>
       </c>
       <c r="B462">
-        <v>167.3737065118187</v>
+        <v>167.374</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4100,7 +4112,7 @@
         <v>0.461</v>
       </c>
       <c r="B463">
-        <v>167.3886836610138</v>
+        <v>167.389</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4108,7 +4120,7 @@
         <v>0.462</v>
       </c>
       <c r="B464">
-        <v>167.3884414945261</v>
+        <v>167.388</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4116,7 +4128,7 @@
         <v>0.463</v>
       </c>
       <c r="B465">
-        <v>167.3692649841957</v>
+        <v>167.369</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4124,7 +4136,7 @@
         <v>0.464</v>
       </c>
       <c r="B466">
-        <v>167.3306208078652</v>
+        <v>167.331</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4132,7 +4144,7 @@
         <v>0.465</v>
       </c>
       <c r="B467">
-        <v>167.2749802645913</v>
+        <v>167.275</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4140,7 +4152,7 @@
         <v>0.466</v>
       </c>
       <c r="B468">
-        <v>167.2072417447633</v>
+        <v>167.207</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4148,7 +4160,7 @@
         <v>0.467</v>
       </c>
       <c r="B469">
-        <v>167.1337390740815</v>
+        <v>167.134</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4156,7 +4168,7 @@
         <v>0.468</v>
       </c>
       <c r="B470">
-        <v>167.0614245710841</v>
+        <v>167.061</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4164,7 +4176,7 @@
         <v>0.469</v>
       </c>
       <c r="B471">
-        <v>166.9966789112164</v>
+        <v>166.997</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4172,7 +4184,7 @@
         <v>0.47</v>
       </c>
       <c r="B472">
-        <v>166.9447143665024</v>
+        <v>166.945</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4180,7 +4192,7 @@
         <v>0.471</v>
       </c>
       <c r="B473">
-        <v>166.9092339357308</v>
+        <v>166.909</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4188,7 +4200,7 @@
         <v>0.472</v>
       </c>
       <c r="B474">
-        <v>166.8904980438796</v>
+        <v>166.89</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4196,7 +4208,7 @@
         <v>0.473</v>
       </c>
       <c r="B475">
-        <v>166.8855401860129</v>
+        <v>166.886</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4204,7 +4216,7 @@
         <v>0.474</v>
       </c>
       <c r="B476">
-        <v>166.8912469784206</v>
+        <v>166.891</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4212,7 +4224,7 @@
         <v>0.475</v>
       </c>
       <c r="B477">
-        <v>166.9040630184002</v>
+        <v>166.904</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4220,7 +4232,7 @@
         <v>0.476</v>
       </c>
       <c r="B478">
-        <v>166.9207223067324</v>
+        <v>166.921</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4228,7 +4240,7 @@
         <v>0.477</v>
       </c>
       <c r="B479">
-        <v>166.9378278868703</v>
+        <v>166.938</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4236,7 +4248,7 @@
         <v>0.478</v>
       </c>
       <c r="B480">
-        <v>166.9532211278427</v>
+        <v>166.953</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4244,7 +4256,7 @@
         <v>0.479</v>
       </c>
       <c r="B481">
-        <v>166.9666644891072</v>
+        <v>166.967</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4252,7 +4264,7 @@
         <v>0.48</v>
       </c>
       <c r="B482">
-        <v>166.9808232612658</v>
+        <v>166.981</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4260,7 +4272,7 @@
         <v>0.481</v>
       </c>
       <c r="B483">
-        <v>167.0001235393646</v>
+        <v>167</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4268,7 +4280,7 @@
         <v>0.482</v>
       </c>
       <c r="B484">
-        <v>167.0305396357305</v>
+        <v>167.031</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4276,7 +4288,7 @@
         <v>0.483</v>
       </c>
       <c r="B485">
-        <v>167.0790101342835</v>
+        <v>167.079</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4284,7 +4296,7 @@
         <v>0.484</v>
       </c>
       <c r="B486">
-        <v>167.1524829698331</v>
+        <v>167.152</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4292,7 +4304,7 @@
         <v>0.485</v>
       </c>
       <c r="B487">
-        <v>167.2568813674048</v>
+        <v>167.257</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4300,7 +4312,7 @@
         <v>0.486</v>
       </c>
       <c r="B488">
-        <v>167.3961412846539</v>
+        <v>167.396</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4308,7 +4320,7 @@
         <v>0.487</v>
       </c>
       <c r="B489">
-        <v>167.5712466830104</v>
+        <v>167.571</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4316,7 +4328,7 @@
         <v>0.488</v>
       </c>
       <c r="B490">
-        <v>167.7799390630913</v>
+        <v>167.78</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4324,7 +4336,7 @@
         <v>0.489</v>
       </c>
       <c r="B491">
-        <v>168.0163698703299</v>
+        <v>168.016</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4332,7 +4344,7 @@
         <v>0.49</v>
       </c>
       <c r="B492">
-        <v>168.2712379624098</v>
+        <v>168.271</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4340,7 +4352,7 @@
         <v>0.491</v>
       </c>
       <c r="B493">
-        <v>168.5323220225151</v>
+        <v>168.532</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4348,7 +4360,7 @@
         <v>0.492</v>
       </c>
       <c r="B494">
-        <v>168.7853611024749</v>
+        <v>168.785</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4356,7 +4368,7 @@
         <v>0.493</v>
       </c>
       <c r="B495">
-        <v>169.0152105194668</v>
+        <v>169.015</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4364,7 +4376,7 @@
         <v>0.494</v>
       </c>
       <c r="B496">
-        <v>169.2071682541396</v>
+        <v>169.207</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4372,7 +4384,7 @@
         <v>0.495</v>
       </c>
       <c r="B497">
-        <v>169.3483801217309</v>
+        <v>169.348</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4380,7 +4392,7 @@
         <v>0.496</v>
       </c>
       <c r="B498">
-        <v>169.4291097012345</v>
+        <v>169.429</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4388,7 +4400,7 @@
         <v>0.497</v>
       </c>
       <c r="B499">
-        <v>169.4437395683518</v>
+        <v>169.444</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4396,7 +4408,7 @@
         <v>0.498</v>
       </c>
       <c r="B500">
-        <v>169.3915548974393</v>
+        <v>169.392</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4404,7 +4416,7 @@
         <v>0.499</v>
       </c>
       <c r="B501">
-        <v>169.2770722142527</v>
+        <v>169.277</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4412,7 +4424,7 @@
         <v>0.5</v>
       </c>
       <c r="B502">
-        <v>169.1099266426779</v>
+        <v>169.11</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4420,7 +4432,7 @@
         <v>0.501</v>
       </c>
       <c r="B503">
-        <v>168.9044381193097</v>
+        <v>168.904</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4428,7 +4440,7 @@
         <v>0.502</v>
       </c>
       <c r="B504">
-        <v>168.6784387662777</v>
+        <v>168.678</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4436,7 +4448,7 @@
         <v>0.503</v>
       </c>
       <c r="B505">
-        <v>168.4521669656535</v>
+        <v>168.452</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4444,7 +4456,7 @@
         <v>0.504</v>
       </c>
       <c r="B506">
-        <v>168.2468490258971</v>
+        <v>168.247</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4452,7 +4464,7 @@
         <v>0.505</v>
       </c>
       <c r="B507">
-        <v>168.0831925632632</v>
+        <v>168.083</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4460,7 +4472,7 @@
         <v>0.506</v>
       </c>
       <c r="B508">
-        <v>167.9800042544943</v>
+        <v>167.98</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4468,7 +4480,7 @@
         <v>0.507</v>
       </c>
       <c r="B509">
-        <v>167.9530051905606</v>
+        <v>167.953</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4476,7 +4488,7 @@
         <v>0.508</v>
       </c>
       <c r="B510">
-        <v>168.0138351168571</v>
+        <v>168.014</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4484,7 +4496,7 @@
         <v>0.509</v>
       </c>
       <c r="B511">
-        <v>168.1694150912763</v>
+        <v>168.169</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4492,7 +4504,7 @@
         <v>0.51</v>
       </c>
       <c r="B512">
-        <v>168.4216544815795</v>
+        <v>168.422</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4500,7 +4512,7 @@
         <v>0.511</v>
       </c>
       <c r="B513">
-        <v>168.7674940345394</v>
+        <v>168.767</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4508,7 +4520,7 @@
         <v>0.512</v>
       </c>
       <c r="B514">
-        <v>169.1993943252988</v>
+        <v>169.199</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4516,7 +4528,7 @@
         <v>0.513</v>
       </c>
       <c r="B515">
-        <v>169.705764804109</v>
+        <v>169.706</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4524,7 +4536,7 @@
         <v>0.514</v>
       </c>
       <c r="B516">
-        <v>170.271681905944</v>
+        <v>170.272</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4532,7 +4544,7 @@
         <v>0.515</v>
       </c>
       <c r="B517">
-        <v>170.8796558575969</v>
+        <v>170.88</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4540,7 +4552,7 @@
         <v>0.516</v>
       </c>
       <c r="B518">
-        <v>171.5107699232958</v>
+        <v>171.511</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4548,7 +4560,7 @@
         <v>0.517</v>
       </c>
       <c r="B519">
-        <v>172.1458711789539</v>
+        <v>172.146</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4556,7 +4568,7 @@
         <v>0.518</v>
       </c>
       <c r="B520">
-        <v>172.7659468602788</v>
+        <v>172.766</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4564,7 +4576,7 @@
         <v>0.519</v>
       </c>
       <c r="B521">
-        <v>173.352922922634</v>
+        <v>173.353</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4572,7 +4584,7 @@
         <v>0.52</v>
       </c>
       <c r="B522">
-        <v>173.8900433899482</v>
+        <v>173.89</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4580,7 +4592,7 @@
         <v>0.521</v>
       </c>
       <c r="B523">
-        <v>174.3615764934663</v>
+        <v>174.362</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4588,7 +4600,7 @@
         <v>0.522</v>
       </c>
       <c r="B524">
-        <v>174.7549926668031</v>
+        <v>174.755</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4596,7 +4608,7 @@
         <v>0.523</v>
       </c>
       <c r="B525">
-        <v>175.0605326982404</v>
+        <v>175.061</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4604,7 +4616,7 @@
         <v>0.524</v>
       </c>
       <c r="B526">
-        <v>175.2705806373336</v>
+        <v>175.271</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4612,7 +4624,7 @@
         <v>0.525</v>
       </c>
       <c r="B527">
-        <v>175.380310418736</v>
+        <v>175.38</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4620,7 +4632,7 @@
         <v>0.526</v>
       </c>
       <c r="B528">
-        <v>175.3883478138339</v>
+        <v>175.388</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4628,7 +4640,7 @@
         <v>0.527</v>
       </c>
       <c r="B529">
-        <v>175.297189247355</v>
+        <v>175.297</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4636,7 +4648,7 @@
         <v>0.528</v>
       </c>
       <c r="B530">
-        <v>175.1132153774926</v>
+        <v>175.113</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4644,7 +4656,7 @@
         <v>0.529</v>
       </c>
       <c r="B531">
-        <v>174.8467610956914</v>
+        <v>174.847</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4652,7 +4664,7 @@
         <v>0.53</v>
       </c>
       <c r="B532">
-        <v>174.5120955951392</v>
+        <v>174.512</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4660,7 +4672,7 @@
         <v>0.531</v>
       </c>
       <c r="B533">
-        <v>174.1267897471809</v>
+        <v>174.127</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4668,7 +4680,7 @@
         <v>0.532</v>
       </c>
       <c r="B534">
-        <v>173.7112865787178</v>
+        <v>173.711</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4676,7 +4688,7 @@
         <v>0.533</v>
       </c>
       <c r="B535">
-        <v>173.2879017571895</v>
+        <v>173.288</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4684,7 +4696,7 @@
         <v>0.534</v>
       </c>
       <c r="B536">
-        <v>172.8795847687041</v>
+        <v>172.88</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4692,7 +4704,7 @@
         <v>0.535</v>
       </c>
       <c r="B537">
-        <v>172.5087780445371</v>
+        <v>172.509</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4700,7 +4712,7 @@
         <v>0.536</v>
       </c>
       <c r="B538">
-        <v>172.1961158408209</v>
+        <v>172.196</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4708,7 +4720,7 @@
         <v>0.537</v>
       </c>
       <c r="B539">
-        <v>171.9591767198817</v>
+        <v>171.959</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4716,7 +4728,7 @@
         <v>0.538</v>
       </c>
       <c r="B540">
-        <v>171.8113875971705</v>
+        <v>171.811</v>
       </c>
     </row>
   </sheetData>
@@ -4726,156 +4738,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E540"/>
+  <dimension ref="A1:F540"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>147.8255157470703</v>
-      </c>
-      <c r="C2">
+        <v>147.826</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.001</v>
       </c>
       <c r="B3">
-        <v>159.5167541503906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>159.517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.002</v>
       </c>
       <c r="B4">
-        <v>171.2079925537109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>171.208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.003</v>
       </c>
       <c r="B5">
-        <v>180.7535552978516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>180.754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.004</v>
       </c>
       <c r="B6">
-        <v>179.0342559814453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>179.034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.005</v>
       </c>
       <c r="B7">
-        <v>177.3149566650391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>177.315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0.006</v>
       </c>
       <c r="B8">
-        <v>175.5956573486328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>175.596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.007</v>
       </c>
       <c r="B9">
-        <v>173.8763580322266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>173.876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.008</v>
       </c>
       <c r="B10">
-        <v>173.5110015869141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>173.511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B11">
-        <v>173.2960815429688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>173.296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>0.01</v>
       </c>
       <c r="B12">
-        <v>173.0811767578125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>173.081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>0.011</v>
       </c>
       <c r="B13">
-        <v>172.8662567138672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>172.866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>0.012</v>
       </c>
       <c r="B14">
-        <v>172.6513519287109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>172.651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>0.013</v>
       </c>
       <c r="B15">
-        <v>172.4566955566406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>172.457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>0.014</v>
       </c>
       <c r="B16">
-        <v>172.3338928222656</v>
+        <v>172.334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4883,7 +4901,7 @@
         <v>0.015</v>
       </c>
       <c r="B17">
-        <v>172.2110900878906</v>
+        <v>172.211</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4891,7 +4909,7 @@
         <v>0.016</v>
       </c>
       <c r="B18">
-        <v>172.0882873535156</v>
+        <v>172.088</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4899,7 +4917,7 @@
         <v>0.017</v>
       </c>
       <c r="B19">
-        <v>171.9654693603516</v>
+        <v>171.965</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4907,7 +4925,7 @@
         <v>0.018</v>
       </c>
       <c r="B20">
-        <v>171.8426666259766</v>
+        <v>171.843</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4915,7 +4933,7 @@
         <v>0.019</v>
       </c>
       <c r="B21">
-        <v>171.7198638916016</v>
+        <v>171.72</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4923,7 +4941,7 @@
         <v>0.02</v>
       </c>
       <c r="B22">
-        <v>171.5970458984375</v>
+        <v>171.597</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4931,7 +4949,7 @@
         <v>0.021</v>
       </c>
       <c r="B23">
-        <v>171.4742431640625</v>
+        <v>171.474</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4939,7 +4957,7 @@
         <v>0.022</v>
       </c>
       <c r="B24">
-        <v>171.3514404296875</v>
+        <v>171.351</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4947,7 +4965,7 @@
         <v>0.023</v>
       </c>
       <c r="B25">
-        <v>171.2469635009766</v>
+        <v>171.247</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4955,7 +4973,7 @@
         <v>0.024</v>
       </c>
       <c r="B26">
-        <v>171.1896514892578</v>
+        <v>171.19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4963,7 +4981,7 @@
         <v>0.025</v>
       </c>
       <c r="B27">
-        <v>171.1323547363281</v>
+        <v>171.132</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4971,7 +4989,7 @@
         <v>0.026</v>
       </c>
       <c r="B28">
-        <v>171.0750427246094</v>
+        <v>171.075</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4979,7 +4997,7 @@
         <v>0.027</v>
       </c>
       <c r="B29">
-        <v>171.0177307128906</v>
+        <v>171.018</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4987,7 +5005,7 @@
         <v>0.028</v>
       </c>
       <c r="B30">
-        <v>170.9604187011719</v>
+        <v>170.96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4995,7 +5013,7 @@
         <v>0.029</v>
       </c>
       <c r="B31">
-        <v>170.9031066894531</v>
+        <v>170.903</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5003,7 +5021,7 @@
         <v>0.03</v>
       </c>
       <c r="B32">
-        <v>170.8457946777344</v>
+        <v>170.846</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5011,7 +5029,7 @@
         <v>0.031</v>
       </c>
       <c r="B33">
-        <v>170.7884826660156</v>
+        <v>170.788</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5019,7 +5037,7 @@
         <v>0.032</v>
       </c>
       <c r="B34">
-        <v>171.5587310791016</v>
+        <v>171.559</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5027,7 +5045,7 @@
         <v>0.033</v>
       </c>
       <c r="B35">
-        <v>172.5903167724609</v>
+        <v>172.59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5035,7 +5053,7 @@
         <v>0.034</v>
       </c>
       <c r="B36">
-        <v>173.6219024658203</v>
+        <v>173.622</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5043,7 +5061,7 @@
         <v>0.035</v>
       </c>
       <c r="B37">
-        <v>174.6534729003906</v>
+        <v>174.653</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5051,7 +5069,7 @@
         <v>0.036</v>
       </c>
       <c r="B38">
-        <v>173.9657592773438</v>
+        <v>173.966</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5059,7 +5077,7 @@
         <v>0.037</v>
       </c>
       <c r="B39">
-        <v>171.5587310791016</v>
+        <v>171.559</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5067,7 +5085,7 @@
         <v>0.038</v>
       </c>
       <c r="B40">
-        <v>169.1517181396484</v>
+        <v>169.152</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5075,7 +5093,7 @@
         <v>0.039</v>
       </c>
       <c r="B41">
-        <v>170.4325866699219</v>
+        <v>170.433</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5083,7 +5101,7 @@
         <v>0.04</v>
       </c>
       <c r="B42">
-        <v>173.6132965087891</v>
+        <v>173.613</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5091,7 +5109,7 @@
         <v>0.041</v>
       </c>
       <c r="B43">
-        <v>176.7940063476562</v>
+        <v>176.794</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5099,7 +5117,7 @@
         <v>0.042</v>
       </c>
       <c r="B44">
-        <v>177.6484985351562</v>
+        <v>177.648</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5107,7 +5125,7 @@
         <v>0.043</v>
       </c>
       <c r="B45">
-        <v>177.9923553466797</v>
+        <v>177.992</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5115,7 +5133,7 @@
         <v>0.044</v>
       </c>
       <c r="B46">
-        <v>178.3362121582031</v>
+        <v>178.336</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5123,7 +5141,7 @@
         <v>0.045</v>
       </c>
       <c r="B47">
-        <v>177.5511779785156</v>
+        <v>177.551</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5131,7 +5149,7 @@
         <v>0.046</v>
       </c>
       <c r="B48">
-        <v>176.7431182861328</v>
+        <v>176.743</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5139,7 +5157,7 @@
         <v>0.047</v>
       </c>
       <c r="B49">
-        <v>175.9350433349609</v>
+        <v>175.935</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5147,7 +5165,7 @@
         <v>0.048</v>
       </c>
       <c r="B50">
-        <v>175.1269683837891</v>
+        <v>175.127</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5155,7 +5173,7 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>174.3188934326172</v>
+        <v>174.319</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5163,7 +5181,7 @@
         <v>0.05</v>
       </c>
       <c r="B52">
-        <v>173.5108337402344</v>
+        <v>173.511</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5171,7 +5189,7 @@
         <v>0.051</v>
       </c>
       <c r="B53">
-        <v>172.7027587890625</v>
+        <v>172.703</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5179,7 +5197,7 @@
         <v>0.052</v>
       </c>
       <c r="B54">
-        <v>171.8946838378906</v>
+        <v>171.895</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5187,7 +5205,7 @@
         <v>0.053</v>
       </c>
       <c r="B55">
-        <v>171.0866088867188</v>
+        <v>171.087</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5195,7 +5213,7 @@
         <v>0.054</v>
       </c>
       <c r="B56">
-        <v>170.2785491943359</v>
+        <v>170.279</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5203,7 +5221,7 @@
         <v>0.055</v>
       </c>
       <c r="B57">
-        <v>169.4704742431641</v>
+        <v>169.47</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5211,7 +5229,7 @@
         <v>0.056</v>
       </c>
       <c r="B58">
-        <v>168.6623992919922</v>
+        <v>168.662</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5219,7 +5237,7 @@
         <v>0.057</v>
       </c>
       <c r="B59">
-        <v>167.8543243408203</v>
+        <v>167.854</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5227,7 +5245,7 @@
         <v>0.058</v>
       </c>
       <c r="B60">
-        <v>167.0462646484375</v>
+        <v>167.046</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5235,7 +5253,7 @@
         <v>0.059</v>
       </c>
       <c r="B61">
-        <v>167.1367034912109</v>
+        <v>167.137</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5243,7 +5261,7 @@
         <v>0.06</v>
       </c>
       <c r="B62">
-        <v>167.4805603027344</v>
+        <v>167.481</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5251,7 +5269,7 @@
         <v>0.061</v>
       </c>
       <c r="B63">
-        <v>167.8244171142578</v>
+        <v>167.824</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5259,7 +5277,7 @@
         <v>0.062</v>
       </c>
       <c r="B64">
-        <v>168.1682739257812</v>
+        <v>168.168</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5267,7 +5285,7 @@
         <v>0.063</v>
       </c>
       <c r="B65">
-        <v>168.5121307373047</v>
+        <v>168.512</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5275,7 +5293,7 @@
         <v>0.064</v>
       </c>
       <c r="B66">
-        <v>168.8560028076172</v>
+        <v>168.856</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5283,7 +5301,7 @@
         <v>0.065</v>
       </c>
       <c r="B67">
-        <v>169.1998596191406</v>
+        <v>169.2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5291,7 +5309,7 @@
         <v>0.066</v>
       </c>
       <c r="B68">
-        <v>169.5437164306641</v>
+        <v>169.544</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5299,7 +5317,7 @@
         <v>0.067</v>
       </c>
       <c r="B69">
-        <v>169.8875732421875</v>
+        <v>169.888</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5307,7 +5325,7 @@
         <v>0.068</v>
       </c>
       <c r="B70">
-        <v>170.2314300537109</v>
+        <v>170.231</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5315,7 +5333,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B71">
-        <v>170.5753021240234</v>
+        <v>170.575</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5323,23 +5341,23 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B72">
-        <v>170.9191589355469</v>
+        <v>170.919</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.07100000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="B73">
-        <v>171.2630157470703</v>
+        <v>171.263</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>0.07200000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B74">
-        <v>171.6068725585938</v>
+        <v>171.607</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5347,7 +5365,7 @@
         <v>0.073</v>
       </c>
       <c r="B75">
-        <v>171.9507446289062</v>
+        <v>171.951</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5355,7 +5373,7 @@
         <v>0.074</v>
       </c>
       <c r="B76">
-        <v>172.2946014404297</v>
+        <v>172.295</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5363,7 +5381,7 @@
         <v>0.075</v>
       </c>
       <c r="B77">
-        <v>172.6384582519531</v>
+        <v>172.638</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5371,7 +5389,7 @@
         <v>0.076</v>
       </c>
       <c r="B78">
-        <v>172.9823150634766</v>
+        <v>172.982</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5379,7 +5397,7 @@
         <v>0.077</v>
       </c>
       <c r="B79">
-        <v>173.326171875</v>
+        <v>173.326</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5387,7 +5405,7 @@
         <v>0.078</v>
       </c>
       <c r="B80">
-        <v>173.6700439453125</v>
+        <v>173.67</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5395,7 +5413,7 @@
         <v>0.079</v>
       </c>
       <c r="B81">
-        <v>174.0139007568359</v>
+        <v>174.014</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5403,7 +5421,7 @@
         <v>0.08</v>
       </c>
       <c r="B82">
-        <v>174.3577575683594</v>
+        <v>174.358</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5411,7 +5429,7 @@
         <v>0.081</v>
       </c>
       <c r="B83">
-        <v>174.6474609375</v>
+        <v>174.647</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5419,7 +5437,7 @@
         <v>0.082</v>
       </c>
       <c r="B84">
-        <v>174.0886840820312</v>
+        <v>174.089</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5427,7 +5445,7 @@
         <v>0.083</v>
       </c>
       <c r="B85">
-        <v>173.5299072265625</v>
+        <v>173.53</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5435,7 +5453,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B86">
-        <v>172.9711303710938</v>
+        <v>172.971</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5443,23 +5461,23 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B87">
-        <v>172.4123687744141</v>
+        <v>172.412</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>0.08600000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="B88">
-        <v>171.8535919189453</v>
+        <v>171.854</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>0.08700000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="B89">
-        <v>171.2131500244141</v>
+        <v>171.213</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5467,7 +5485,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B90">
-        <v>170.4394683837891</v>
+        <v>170.439</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5475,7 +5493,7 @@
         <v>0.089</v>
       </c>
       <c r="B91">
-        <v>169.6657867431641</v>
+        <v>169.666</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5483,7 +5501,7 @@
         <v>0.09</v>
       </c>
       <c r="B92">
-        <v>169.7369689941406</v>
+        <v>169.737</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5491,7 +5509,7 @@
         <v>0.091</v>
       </c>
       <c r="B93">
-        <v>170.5278472900391</v>
+        <v>170.528</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5499,7 +5517,7 @@
         <v>0.092</v>
       </c>
       <c r="B94">
-        <v>171.3187255859375</v>
+        <v>171.319</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5507,7 +5525,7 @@
         <v>0.093</v>
       </c>
       <c r="B95">
-        <v>172.1096038818359</v>
+        <v>172.11</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5515,7 +5533,7 @@
         <v>0.094</v>
       </c>
       <c r="B96">
-        <v>172.9004821777344</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5523,7 +5541,7 @@
         <v>0.095</v>
       </c>
       <c r="B97">
-        <v>173.6913604736328</v>
+        <v>173.691</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5531,7 +5549,7 @@
         <v>0.096</v>
       </c>
       <c r="B98">
-        <v>174.4822387695312</v>
+        <v>174.482</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5539,7 +5557,7 @@
         <v>0.097</v>
       </c>
       <c r="B99">
-        <v>174.8494720458984</v>
+        <v>174.849</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5547,7 +5565,7 @@
         <v>0.098</v>
       </c>
       <c r="B100">
-        <v>174.6775512695312</v>
+        <v>174.678</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5555,7 +5573,7 @@
         <v>0.099</v>
       </c>
       <c r="B101">
-        <v>174.505615234375</v>
+        <v>174.506</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5563,7 +5581,7 @@
         <v>0.1</v>
       </c>
       <c r="B102">
-        <v>174.3336791992188</v>
+        <v>174.334</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5571,7 +5589,7 @@
         <v>0.101</v>
       </c>
       <c r="B103">
-        <v>174.1617584228516</v>
+        <v>174.162</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5579,7 +5597,7 @@
         <v>0.102</v>
       </c>
       <c r="B104">
-        <v>173.9898223876953</v>
+        <v>173.99</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5587,7 +5605,7 @@
         <v>0.103</v>
       </c>
       <c r="B105">
-        <v>173.8179016113281</v>
+        <v>173.818</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5595,7 +5613,7 @@
         <v>0.104</v>
       </c>
       <c r="B106">
-        <v>173.6459655761719</v>
+        <v>173.646</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5603,7 +5621,7 @@
         <v>0.105</v>
       </c>
       <c r="B107">
-        <v>173.4740295410156</v>
+        <v>173.474</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5611,7 +5629,7 @@
         <v>0.106</v>
       </c>
       <c r="B108">
-        <v>173.3021087646484</v>
+        <v>173.302</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5619,7 +5637,7 @@
         <v>0.107</v>
       </c>
       <c r="B109">
-        <v>173.1301727294922</v>
+        <v>173.13</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5627,7 +5645,7 @@
         <v>0.108</v>
       </c>
       <c r="B110">
-        <v>172.958251953125</v>
+        <v>172.958</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5635,7 +5653,7 @@
         <v>0.109</v>
       </c>
       <c r="B111">
-        <v>172.7863159179688</v>
+        <v>172.786</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5643,7 +5661,7 @@
         <v>0.11</v>
       </c>
       <c r="B112">
-        <v>172.6143798828125</v>
+        <v>172.614</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5651,7 +5669,7 @@
         <v>0.111</v>
       </c>
       <c r="B113">
-        <v>172.4424591064453</v>
+        <v>172.442</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5659,7 +5677,7 @@
         <v>0.112</v>
       </c>
       <c r="B114">
-        <v>172.2705230712891</v>
+        <v>172.271</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5667,7 +5685,7 @@
         <v>0.113</v>
       </c>
       <c r="B115">
-        <v>172.0986022949219</v>
+        <v>172.099</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5675,7 +5693,7 @@
         <v>0.114</v>
       </c>
       <c r="B116">
-        <v>171.9266662597656</v>
+        <v>171.927</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5683,7 +5701,7 @@
         <v>0.115</v>
       </c>
       <c r="B117">
-        <v>171.7547302246094</v>
+        <v>171.755</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5691,7 +5709,7 @@
         <v>0.116</v>
       </c>
       <c r="B118">
-        <v>171.5828094482422</v>
+        <v>171.583</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5699,7 +5717,7 @@
         <v>0.117</v>
       </c>
       <c r="B119">
-        <v>172.0298309326172</v>
+        <v>172.03</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5707,7 +5725,7 @@
         <v>0.118</v>
       </c>
       <c r="B120">
-        <v>172.9631652832031</v>
+        <v>172.963</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5715,7 +5733,7 @@
         <v>0.119</v>
       </c>
       <c r="B121">
-        <v>173.8964996337891</v>
+        <v>173.896</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5723,7 +5741,7 @@
         <v>0.12</v>
       </c>
       <c r="B122">
-        <v>174.829833984375</v>
+        <v>174.83</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5731,7 +5749,7 @@
         <v>0.121</v>
       </c>
       <c r="B123">
-        <v>175.7631683349609</v>
+        <v>175.763</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5739,7 +5757,7 @@
         <v>0.122</v>
       </c>
       <c r="B124">
-        <v>176.6965026855469</v>
+        <v>176.697</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5747,7 +5765,7 @@
         <v>0.123</v>
       </c>
       <c r="B125">
-        <v>177.6298370361328</v>
+        <v>177.63</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5755,7 +5773,7 @@
         <v>0.124</v>
       </c>
       <c r="B126">
-        <v>178.5631713867188</v>
+        <v>178.563</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5763,7 +5781,7 @@
         <v>0.125</v>
       </c>
       <c r="B127">
-        <v>179.4965057373047</v>
+        <v>179.497</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5771,7 +5789,7 @@
         <v>0.126</v>
       </c>
       <c r="B128">
-        <v>180.4298400878906</v>
+        <v>180.43</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5779,7 +5797,7 @@
         <v>0.127</v>
       </c>
       <c r="B129">
-        <v>179.7540588378906</v>
+        <v>179.754</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5787,7 +5805,7 @@
         <v>0.128</v>
       </c>
       <c r="B130">
-        <v>178.0920715332031</v>
+        <v>178.092</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5795,7 +5813,7 @@
         <v>0.129</v>
       </c>
       <c r="B131">
-        <v>176.4300842285156</v>
+        <v>176.43</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5803,7 +5821,7 @@
         <v>0.13</v>
       </c>
       <c r="B132">
-        <v>174.7680969238281</v>
+        <v>174.768</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5811,7 +5829,7 @@
         <v>0.131</v>
       </c>
       <c r="B133">
-        <v>171.6309356689453</v>
+        <v>171.631</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5819,7 +5837,7 @@
         <v>0.132</v>
       </c>
       <c r="B134">
-        <v>165.8712768554688</v>
+        <v>165.871</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5827,7 +5845,7 @@
         <v>0.133</v>
       </c>
       <c r="B135">
-        <v>160.1116180419922</v>
+        <v>160.112</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5835,7 +5853,7 @@
         <v>0.134</v>
       </c>
       <c r="B136">
-        <v>157.1426544189453</v>
+        <v>157.143</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5843,7 +5861,7 @@
         <v>0.135</v>
       </c>
       <c r="B137">
-        <v>156.7496643066406</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5851,7 +5869,7 @@
         <v>0.136</v>
       </c>
       <c r="B138">
-        <v>156.3566741943359</v>
+        <v>156.357</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5859,7 +5877,7 @@
         <v>0.137</v>
       </c>
       <c r="B139">
-        <v>155.9636993408203</v>
+        <v>155.964</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5867,7 +5885,7 @@
         <v>0.138</v>
       </c>
       <c r="B140">
-        <v>155.5707092285156</v>
+        <v>155.571</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5875,7 +5893,7 @@
         <v>0.139</v>
       </c>
       <c r="B141">
-        <v>155.177734375</v>
+        <v>155.178</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5883,7 +5901,7 @@
         <v>0.14</v>
       </c>
       <c r="B142">
-        <v>154.7847442626953</v>
+        <v>154.785</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5891,7 +5909,7 @@
         <v>0.141</v>
       </c>
       <c r="B143">
-        <v>154.3917694091797</v>
+        <v>154.392</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5899,7 +5917,7 @@
         <v>0.142</v>
       </c>
       <c r="B144">
-        <v>153.998779296875</v>
+        <v>153.999</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5907,7 +5925,7 @@
         <v>0.143</v>
       </c>
       <c r="B145">
-        <v>153.6058044433594</v>
+        <v>153.606</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5915,7 +5933,7 @@
         <v>0.144</v>
       </c>
       <c r="B146">
-        <v>153.3465728759766</v>
+        <v>153.347</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5923,7 +5941,7 @@
         <v>0.145</v>
       </c>
       <c r="B147">
-        <v>153.1841888427734</v>
+        <v>153.184</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5931,7 +5949,7 @@
         <v>0.146</v>
       </c>
       <c r="B148">
-        <v>153.0218200683594</v>
+        <v>153.022</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5939,7 +5957,7 @@
         <v>0.147</v>
       </c>
       <c r="B149">
-        <v>152.8594360351562</v>
+        <v>152.859</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5947,7 +5965,7 @@
         <v>0.148</v>
       </c>
       <c r="B150">
-        <v>152.6970520019531</v>
+        <v>152.697</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5955,7 +5973,7 @@
         <v>0.149</v>
       </c>
       <c r="B151">
-        <v>152.5346832275391</v>
+        <v>152.535</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5963,7 +5981,7 @@
         <v>0.15</v>
       </c>
       <c r="B152">
-        <v>152.3722991943359</v>
+        <v>152.372</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5971,7 +5989,7 @@
         <v>0.151</v>
       </c>
       <c r="B153">
-        <v>152.2099151611328</v>
+        <v>152.21</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5979,7 +5997,7 @@
         <v>0.152</v>
       </c>
       <c r="B154">
-        <v>152.0475463867188</v>
+        <v>152.048</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5987,7 +6005,7 @@
         <v>0.153</v>
       </c>
       <c r="B155">
-        <v>151.8851623535156</v>
+        <v>151.885</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5995,7 +6013,7 @@
         <v>0.154</v>
       </c>
       <c r="B156">
-        <v>151.7227935791016</v>
+        <v>151.723</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -6003,7 +6021,7 @@
         <v>0.155</v>
       </c>
       <c r="B157">
-        <v>151.5604095458984</v>
+        <v>151.56</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -6011,7 +6029,7 @@
         <v>0.156</v>
       </c>
       <c r="B158">
-        <v>151.3980255126953</v>
+        <v>151.398</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -6019,7 +6037,7 @@
         <v>0.157</v>
       </c>
       <c r="B159">
-        <v>151.2356567382812</v>
+        <v>151.236</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -6027,7 +6045,7 @@
         <v>0.158</v>
       </c>
       <c r="B160">
-        <v>151.0732727050781</v>
+        <v>151.073</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -6035,7 +6053,7 @@
         <v>0.159</v>
       </c>
       <c r="B161">
-        <v>150.910888671875</v>
+        <v>150.911</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -6043,7 +6061,7 @@
         <v>0.16</v>
       </c>
       <c r="B162">
-        <v>150.7485198974609</v>
+        <v>150.749</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -6051,7 +6069,7 @@
         <v>0.161</v>
       </c>
       <c r="B163">
-        <v>150.5861358642578</v>
+        <v>150.586</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -6059,7 +6077,7 @@
         <v>0.162</v>
       </c>
       <c r="B164">
-        <v>150.4237670898438</v>
+        <v>150.424</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -6067,7 +6085,7 @@
         <v>0.163</v>
       </c>
       <c r="B165">
-        <v>150.2613830566406</v>
+        <v>150.261</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -6075,7 +6093,7 @@
         <v>0.164</v>
       </c>
       <c r="B166">
-        <v>150.0989990234375</v>
+        <v>150.099</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -6083,7 +6101,7 @@
         <v>0.165</v>
       </c>
       <c r="B167">
-        <v>149.9366302490234</v>
+        <v>149.937</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -6091,7 +6109,7 @@
         <v>0.166</v>
       </c>
       <c r="B168">
-        <v>149.7742462158203</v>
+        <v>149.774</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -6099,7 +6117,7 @@
         <v>0.167</v>
       </c>
       <c r="B169">
-        <v>149.6118621826172</v>
+        <v>149.612</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -6107,7 +6125,7 @@
         <v>0.168</v>
       </c>
       <c r="B170">
-        <v>149.4494934082031</v>
+        <v>149.449</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -6115,7 +6133,7 @@
         <v>0.169</v>
       </c>
       <c r="B171">
-        <v>149.3281860351562</v>
+        <v>149.328</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -6123,7 +6141,7 @@
         <v>0.17</v>
       </c>
       <c r="B172">
-        <v>151.2194213867188</v>
+        <v>151.219</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -6131,7 +6149,7 @@
         <v>0.171</v>
       </c>
       <c r="B173">
-        <v>153.1106567382812</v>
+        <v>153.111</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -6139,7 +6157,7 @@
         <v>0.172</v>
       </c>
       <c r="B174">
-        <v>155.0018768310547</v>
+        <v>155.002</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -6147,7 +6165,7 @@
         <v>0.173</v>
       </c>
       <c r="B175">
-        <v>156.8931121826172</v>
+        <v>156.893</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -6155,7 +6173,7 @@
         <v>0.174</v>
       </c>
       <c r="B176">
-        <v>158.7843322753906</v>
+        <v>158.784</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -6163,7 +6181,7 @@
         <v>0.175</v>
       </c>
       <c r="B177">
-        <v>160.6755676269531</v>
+        <v>160.676</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -6171,7 +6189,7 @@
         <v>0.176</v>
       </c>
       <c r="B178">
-        <v>162.5667877197266</v>
+        <v>162.567</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -6179,7 +6197,7 @@
         <v>0.177</v>
       </c>
       <c r="B179">
-        <v>163.5880584716797</v>
+        <v>163.588</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -6187,7 +6205,7 @@
         <v>0.178</v>
       </c>
       <c r="B180">
-        <v>164.5336761474609</v>
+        <v>164.534</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -6195,7 +6213,7 @@
         <v>0.179</v>
       </c>
       <c r="B181">
-        <v>165.4655303955078</v>
+        <v>165.466</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -6203,7 +6221,7 @@
         <v>0.18</v>
       </c>
       <c r="B182">
-        <v>166.2392272949219</v>
+        <v>166.239</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -6211,7 +6229,7 @@
         <v>0.181</v>
       </c>
       <c r="B183">
-        <v>167.0129089355469</v>
+        <v>167.013</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -6219,7 +6237,7 @@
         <v>0.182</v>
       </c>
       <c r="B184">
-        <v>167.9887847900391</v>
+        <v>167.989</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -6227,7 +6245,7 @@
         <v>0.183</v>
       </c>
       <c r="B185">
-        <v>169.6049346923828</v>
+        <v>169.605</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -6235,7 +6253,7 @@
         <v>0.184</v>
       </c>
       <c r="B186">
-        <v>171.2210693359375</v>
+        <v>171.221</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -6243,7 +6261,7 @@
         <v>0.185</v>
       </c>
       <c r="B187">
-        <v>172.8372039794922</v>
+        <v>172.837</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -6251,7 +6269,7 @@
         <v>0.186</v>
       </c>
       <c r="B188">
-        <v>174.4533538818359</v>
+        <v>174.453</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -6259,7 +6277,7 @@
         <v>0.187</v>
       </c>
       <c r="B189">
-        <v>176.0694885253906</v>
+        <v>176.069</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -6267,7 +6285,7 @@
         <v>0.188</v>
       </c>
       <c r="B190">
-        <v>177.6856384277344</v>
+        <v>177.686</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -6275,7 +6293,7 @@
         <v>0.189</v>
       </c>
       <c r="B191">
-        <v>179.0532989501953</v>
+        <v>179.053</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -6283,7 +6301,7 @@
         <v>0.19</v>
       </c>
       <c r="B192">
-        <v>178.8945922851562</v>
+        <v>178.895</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -6291,7 +6309,7 @@
         <v>0.191</v>
       </c>
       <c r="B193">
-        <v>178.7358856201172</v>
+        <v>178.736</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6299,7 +6317,7 @@
         <v>0.192</v>
       </c>
       <c r="B194">
-        <v>178.5771789550781</v>
+        <v>178.577</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -6307,7 +6325,7 @@
         <v>0.193</v>
       </c>
       <c r="B195">
-        <v>178.4184722900391</v>
+        <v>178.418</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -6315,7 +6333,7 @@
         <v>0.194</v>
       </c>
       <c r="B196">
-        <v>178.2597808837891</v>
+        <v>178.26</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -6323,7 +6341,7 @@
         <v>0.195</v>
       </c>
       <c r="B197">
-        <v>178.10107421875</v>
+        <v>178.101</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6331,7 +6349,7 @@
         <v>0.196</v>
       </c>
       <c r="B198">
-        <v>177.9423675537109</v>
+        <v>177.942</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6339,7 +6357,7 @@
         <v>0.197</v>
       </c>
       <c r="B199">
-        <v>177.7836608886719</v>
+        <v>177.784</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -6347,7 +6365,7 @@
         <v>0.198</v>
       </c>
       <c r="B200">
-        <v>177.6249542236328</v>
+        <v>177.625</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6355,7 +6373,7 @@
         <v>0.199</v>
       </c>
       <c r="B201">
-        <v>177.4662475585938</v>
+        <v>177.466</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6363,7 +6381,7 @@
         <v>0.2</v>
       </c>
       <c r="B202">
-        <v>177.3075408935547</v>
+        <v>177.308</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6371,7 +6389,7 @@
         <v>0.201</v>
       </c>
       <c r="B203">
-        <v>177.1488342285156</v>
+        <v>177.149</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6379,7 +6397,7 @@
         <v>0.202</v>
       </c>
       <c r="B204">
-        <v>176.9901428222656</v>
+        <v>176.99</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6387,7 +6405,7 @@
         <v>0.203</v>
       </c>
       <c r="B205">
-        <v>176.8314361572266</v>
+        <v>176.831</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6395,7 +6413,7 @@
         <v>0.204</v>
       </c>
       <c r="B206">
-        <v>176.6727294921875</v>
+        <v>176.673</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6403,7 +6421,7 @@
         <v>0.205</v>
       </c>
       <c r="B207">
-        <v>176.5140228271484</v>
+        <v>176.514</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6411,7 +6429,7 @@
         <v>0.206</v>
       </c>
       <c r="B208">
-        <v>176.3553161621094</v>
+        <v>176.355</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6419,7 +6437,7 @@
         <v>0.207</v>
       </c>
       <c r="B209">
-        <v>176.1966094970703</v>
+        <v>176.197</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -6427,7 +6445,7 @@
         <v>0.208</v>
       </c>
       <c r="B210">
-        <v>176.3601684570312</v>
+        <v>176.36</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -6435,7 +6453,7 @@
         <v>0.209</v>
       </c>
       <c r="B211">
-        <v>176.6753692626953</v>
+        <v>176.675</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6443,7 +6461,7 @@
         <v>0.21</v>
       </c>
       <c r="B212">
-        <v>176.9905853271484</v>
+        <v>176.991</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6451,7 +6469,7 @@
         <v>0.211</v>
       </c>
       <c r="B213">
-        <v>177.3057861328125</v>
+        <v>177.306</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6459,7 +6477,7 @@
         <v>0.212</v>
       </c>
       <c r="B214">
-        <v>177.6209869384766</v>
+        <v>177.621</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6467,7 +6485,7 @@
         <v>0.213</v>
       </c>
       <c r="B215">
-        <v>177.9361877441406</v>
+        <v>177.936</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -6475,7 +6493,7 @@
         <v>0.214</v>
       </c>
       <c r="B216">
-        <v>178.2514038085938</v>
+        <v>178.251</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6483,7 +6501,7 @@
         <v>0.215</v>
       </c>
       <c r="B217">
-        <v>178.5666046142578</v>
+        <v>178.567</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -6491,7 +6509,7 @@
         <v>0.216</v>
       </c>
       <c r="B218">
-        <v>178.8680572509766</v>
+        <v>178.868</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -6499,7 +6517,7 @@
         <v>0.217</v>
       </c>
       <c r="B219">
-        <v>179.0972900390625</v>
+        <v>179.097</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6507,7 +6525,7 @@
         <v>0.218</v>
       </c>
       <c r="B220">
-        <v>179.3265380859375</v>
+        <v>179.327</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -6515,7 +6533,7 @@
         <v>0.219</v>
       </c>
       <c r="B221">
-        <v>179.5557708740234</v>
+        <v>179.556</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6523,7 +6541,7 @@
         <v>0.22</v>
       </c>
       <c r="B222">
-        <v>179.7850189208984</v>
+        <v>179.785</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -6531,7 +6549,7 @@
         <v>0.221</v>
       </c>
       <c r="B223">
-        <v>179.8079376220703</v>
+        <v>179.808</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -6539,7 +6557,7 @@
         <v>0.222</v>
       </c>
       <c r="B224">
-        <v>179.8079376220703</v>
+        <v>179.808</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -6547,7 +6565,7 @@
         <v>0.223</v>
       </c>
       <c r="B225">
-        <v>179.8646850585938</v>
+        <v>179.865</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6555,7 +6573,7 @@
         <v>0.224</v>
       </c>
       <c r="B226">
-        <v>180.810302734375</v>
+        <v>180.81</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6563,7 +6581,7 @@
         <v>0.225</v>
       </c>
       <c r="B227">
-        <v>181.7559051513672</v>
+        <v>181.756</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6571,7 +6589,7 @@
         <v>0.226</v>
       </c>
       <c r="B228">
-        <v>182.2362823486328</v>
+        <v>182.236</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -6579,7 +6597,7 @@
         <v>0.227</v>
       </c>
       <c r="B229">
-        <v>181.0671539306641</v>
+        <v>181.067</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -6587,7 +6605,7 @@
         <v>0.228</v>
       </c>
       <c r="B230">
-        <v>179.8980255126953</v>
+        <v>179.898</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -6595,7 +6613,7 @@
         <v>0.229</v>
       </c>
       <c r="B231">
-        <v>178.7288970947266</v>
+        <v>178.729</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -6603,7 +6621,7 @@
         <v>0.23</v>
       </c>
       <c r="B232">
-        <v>177.5597686767578</v>
+        <v>177.56</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6611,7 +6629,7 @@
         <v>0.231</v>
       </c>
       <c r="B233">
-        <v>176.3906402587891</v>
+        <v>176.391</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -6619,7 +6637,7 @@
         <v>0.232</v>
       </c>
       <c r="B234">
-        <v>175.2215270996094</v>
+        <v>175.222</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -6627,7 +6645,7 @@
         <v>0.233</v>
       </c>
       <c r="B235">
-        <v>174.2313842773438</v>
+        <v>174.231</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6635,7 +6653,7 @@
         <v>0.234</v>
       </c>
       <c r="B236">
-        <v>174.5537567138672</v>
+        <v>174.554</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6643,7 +6661,7 @@
         <v>0.235</v>
       </c>
       <c r="B237">
-        <v>174.8761291503906</v>
+        <v>174.876</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6651,7 +6669,7 @@
         <v>0.236</v>
       </c>
       <c r="B238">
-        <v>175.1985015869141</v>
+        <v>175.199</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -6659,7 +6677,7 @@
         <v>0.237</v>
       </c>
       <c r="B239">
-        <v>175.5208587646484</v>
+        <v>175.521</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -6667,7 +6685,7 @@
         <v>0.238</v>
       </c>
       <c r="B240">
-        <v>175.8432312011719</v>
+        <v>175.843</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6675,7 +6693,7 @@
         <v>0.239</v>
       </c>
       <c r="B241">
-        <v>176.1656036376953</v>
+        <v>176.166</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6683,7 +6701,7 @@
         <v>0.24</v>
       </c>
       <c r="B242">
-        <v>176.4879760742188</v>
+        <v>176.488</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6691,7 +6709,7 @@
         <v>0.241</v>
       </c>
       <c r="B243">
-        <v>176.8103485107422</v>
+        <v>176.81</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6699,7 +6717,7 @@
         <v>0.242</v>
       </c>
       <c r="B244">
-        <v>177.1327056884766</v>
+        <v>177.133</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6707,7 +6725,7 @@
         <v>0.243</v>
       </c>
       <c r="B245">
-        <v>177.455078125</v>
+        <v>177.455</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6715,7 +6733,7 @@
         <v>0.244</v>
       </c>
       <c r="B246">
-        <v>177.7774505615234</v>
+        <v>177.777</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6723,7 +6741,7 @@
         <v>0.245</v>
       </c>
       <c r="B247">
-        <v>178.0998229980469</v>
+        <v>178.1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6731,7 +6749,7 @@
         <v>0.246</v>
       </c>
       <c r="B248">
-        <v>178.4221801757812</v>
+        <v>178.422</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6739,7 +6757,7 @@
         <v>0.247</v>
       </c>
       <c r="B249">
-        <v>178.7445526123047</v>
+        <v>178.745</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6747,7 +6765,7 @@
         <v>0.248</v>
       </c>
       <c r="B250">
-        <v>179.0669250488281</v>
+        <v>179.067</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6755,7 +6773,7 @@
         <v>0.249</v>
       </c>
       <c r="B251">
-        <v>179.3892974853516</v>
+        <v>179.389</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6763,7 +6781,7 @@
         <v>0.25</v>
       </c>
       <c r="B252">
-        <v>179.7116546630859</v>
+        <v>179.712</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6771,7 +6789,7 @@
         <v>0.251</v>
       </c>
       <c r="B253">
-        <v>180.0340270996094</v>
+        <v>180.034</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6779,7 +6797,7 @@
         <v>0.252</v>
       </c>
       <c r="B254">
-        <v>180.3563995361328</v>
+        <v>180.356</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6787,7 +6805,7 @@
         <v>0.253</v>
       </c>
       <c r="B255">
-        <v>180.6787719726562</v>
+        <v>180.679</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6795,7 +6813,7 @@
         <v>0.254</v>
       </c>
       <c r="B256">
-        <v>181.0011291503906</v>
+        <v>181.001</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6803,7 +6821,7 @@
         <v>0.255</v>
       </c>
       <c r="B257">
-        <v>181.3235015869141</v>
+        <v>181.324</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6811,7 +6829,7 @@
         <v>0.256</v>
       </c>
       <c r="B258">
-        <v>181.1157379150391</v>
+        <v>181.116</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6819,7 +6837,7 @@
         <v>0.257</v>
       </c>
       <c r="B259">
-        <v>180.1128234863281</v>
+        <v>180.113</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6827,7 +6845,7 @@
         <v>0.258</v>
       </c>
       <c r="B260">
-        <v>179.1098937988281</v>
+        <v>179.11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6835,7 +6853,7 @@
         <v>0.259</v>
       </c>
       <c r="B261">
-        <v>178.1069641113281</v>
+        <v>178.107</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6843,7 +6861,7 @@
         <v>0.26</v>
       </c>
       <c r="B262">
-        <v>177.1040496826172</v>
+        <v>177.104</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6851,7 +6869,7 @@
         <v>0.261</v>
       </c>
       <c r="B263">
-        <v>176.1011199951172</v>
+        <v>176.101</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6859,7 +6877,7 @@
         <v>0.262</v>
       </c>
       <c r="B264">
-        <v>175.0981903076172</v>
+        <v>175.098</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6867,7 +6885,7 @@
         <v>0.263</v>
       </c>
       <c r="B265">
-        <v>174.0952758789062</v>
+        <v>174.095</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6875,7 +6893,7 @@
         <v>0.264</v>
       </c>
       <c r="B266">
-        <v>173.0923461914062</v>
+        <v>173.092</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6883,7 +6901,7 @@
         <v>0.265</v>
       </c>
       <c r="B267">
-        <v>172.8206939697266</v>
+        <v>172.821</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6891,7 +6909,7 @@
         <v>0.266</v>
       </c>
       <c r="B268">
-        <v>172.6487731933594</v>
+        <v>172.649</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6899,7 +6917,7 @@
         <v>0.267</v>
       </c>
       <c r="B269">
-        <v>172.5009155273438</v>
+        <v>172.501</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6907,7 +6925,7 @@
         <v>0.268</v>
       </c>
       <c r="B270">
-        <v>172.9307403564453</v>
+        <v>172.931</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6915,7 +6933,7 @@
         <v>0.269</v>
       </c>
       <c r="B271">
-        <v>173.3605651855469</v>
+        <v>173.361</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6923,7 +6941,7 @@
         <v>0.27</v>
       </c>
       <c r="B272">
-        <v>173.7044219970703</v>
+        <v>173.704</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6931,7 +6949,7 @@
         <v>0.271</v>
       </c>
       <c r="B273">
-        <v>173.7044219970703</v>
+        <v>173.704</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6939,7 +6957,7 @@
         <v>0.272</v>
       </c>
       <c r="B274">
-        <v>173.5703125</v>
+        <v>173.57</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6947,7 +6965,7 @@
         <v>0.273</v>
       </c>
       <c r="B275">
-        <v>173.3983917236328</v>
+        <v>173.398</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6955,7 +6973,7 @@
         <v>0.274</v>
       </c>
       <c r="B276">
-        <v>173.2264556884766</v>
+        <v>173.226</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6963,7 +6981,7 @@
         <v>0.275</v>
       </c>
       <c r="B277">
-        <v>172.8929138183594</v>
+        <v>172.893</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6971,7 +6989,7 @@
         <v>0.276</v>
       </c>
       <c r="B278">
-        <v>172.5490570068359</v>
+        <v>172.549</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6979,7 +6997,7 @@
         <v>0.277</v>
       </c>
       <c r="B279">
-        <v>172.2051849365234</v>
+        <v>172.205</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6987,7 +7005,7 @@
         <v>0.278</v>
       </c>
       <c r="B280">
-        <v>171.861328125</v>
+        <v>171.861</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6995,7 +7013,7 @@
         <v>0.279</v>
       </c>
       <c r="B281">
-        <v>171.5174713134766</v>
+        <v>171.517</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -7003,7 +7021,7 @@
         <v>0.28</v>
       </c>
       <c r="B282">
-        <v>171.3412475585938</v>
+        <v>171.341</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -7011,7 +7029,7 @@
         <v>0.281</v>
       </c>
       <c r="B283">
-        <v>171.6421203613281</v>
+        <v>171.642</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -7019,7 +7037,7 @@
         <v>0.282</v>
       </c>
       <c r="B284">
-        <v>171.9430084228516</v>
+        <v>171.943</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -7027,7 +7045,7 @@
         <v>0.283</v>
       </c>
       <c r="B285">
-        <v>172.2438812255859</v>
+        <v>172.244</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -7035,7 +7053,7 @@
         <v>0.284</v>
       </c>
       <c r="B286">
-        <v>172.5447540283203</v>
+        <v>172.545</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -7043,7 +7061,7 @@
         <v>0.285</v>
       </c>
       <c r="B287">
-        <v>172.8456268310547</v>
+        <v>172.846</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -7051,7 +7069,7 @@
         <v>0.286</v>
       </c>
       <c r="B288">
-        <v>173.1465148925781</v>
+        <v>173.147</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -7059,7 +7077,7 @@
         <v>0.287</v>
       </c>
       <c r="B289">
-        <v>173.4473876953125</v>
+        <v>173.447</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -7067,7 +7085,7 @@
         <v>0.288</v>
       </c>
       <c r="B290">
-        <v>173.7482604980469</v>
+        <v>173.748</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -7075,7 +7093,7 @@
         <v>0.289</v>
       </c>
       <c r="B291">
-        <v>174.0491333007812</v>
+        <v>174.049</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -7083,7 +7101,7 @@
         <v>0.29</v>
       </c>
       <c r="B292">
-        <v>174.3500213623047</v>
+        <v>174.35</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -7091,7 +7109,7 @@
         <v>0.291</v>
       </c>
       <c r="B293">
-        <v>174.6508941650391</v>
+        <v>174.651</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -7099,7 +7117,7 @@
         <v>0.292</v>
       </c>
       <c r="B294">
-        <v>174.1587524414062</v>
+        <v>174.159</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -7107,7 +7125,7 @@
         <v>0.293</v>
       </c>
       <c r="B295">
-        <v>173.5784912109375</v>
+        <v>173.578</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -7115,7 +7133,7 @@
         <v>0.294</v>
       </c>
       <c r="B296">
-        <v>172.9982147216797</v>
+        <v>172.998</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -7123,7 +7141,7 @@
         <v>0.295</v>
       </c>
       <c r="B297">
-        <v>172.4179534912109</v>
+        <v>172.418</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -7131,7 +7149,7 @@
         <v>0.296</v>
       </c>
       <c r="B298">
-        <v>171.8376922607422</v>
+        <v>171.838</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -7139,7 +7157,7 @@
         <v>0.297</v>
       </c>
       <c r="B299">
-        <v>171.2574310302734</v>
+        <v>171.257</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -7147,7 +7165,7 @@
         <v>0.298</v>
       </c>
       <c r="B300">
-        <v>170.6771697998047</v>
+        <v>170.677</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -7155,7 +7173,7 @@
         <v>0.299</v>
       </c>
       <c r="B301">
-        <v>170.0968933105469</v>
+        <v>170.097</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -7163,7 +7181,7 @@
         <v>0.3</v>
       </c>
       <c r="B302">
-        <v>169.5166320800781</v>
+        <v>169.517</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -7171,7 +7189,7 @@
         <v>0.301</v>
       </c>
       <c r="B303">
-        <v>168.9363708496094</v>
+        <v>168.936</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -7179,7 +7197,7 @@
         <v>0.302</v>
       </c>
       <c r="B304">
-        <v>168.3561096191406</v>
+        <v>168.356</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7187,7 +7205,7 @@
         <v>0.303</v>
       </c>
       <c r="B305">
-        <v>168.3677215576172</v>
+        <v>168.368</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7195,7 +7213,7 @@
         <v>0.304</v>
       </c>
       <c r="B306">
-        <v>168.8835144042969</v>
+        <v>168.884</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7203,7 +7221,7 @@
         <v>0.305</v>
       </c>
       <c r="B307">
-        <v>169.3993072509766</v>
+        <v>169.399</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7211,7 +7229,7 @@
         <v>0.306</v>
       </c>
       <c r="B308">
-        <v>169.9150848388672</v>
+        <v>169.915</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7219,7 +7237,7 @@
         <v>0.307</v>
       </c>
       <c r="B309">
-        <v>170.4308776855469</v>
+        <v>170.431</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -7227,7 +7245,7 @@
         <v>0.308</v>
       </c>
       <c r="B310">
-        <v>170.9466705322266</v>
+        <v>170.947</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7235,7 +7253,7 @@
         <v>0.309</v>
       </c>
       <c r="B311">
-        <v>170.5752868652344</v>
+        <v>170.575</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -7243,7 +7261,7 @@
         <v>0.31</v>
       </c>
       <c r="B312">
-        <v>170.0594940185547</v>
+        <v>170.059</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7251,7 +7269,7 @@
         <v>0.311</v>
       </c>
       <c r="B313">
-        <v>169.5746765136719</v>
+        <v>169.575</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -7259,7 +7277,7 @@
         <v>0.312</v>
       </c>
       <c r="B314">
-        <v>170.6062469482422</v>
+        <v>170.606</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7267,7 +7285,7 @@
         <v>0.313</v>
       </c>
       <c r="B315">
-        <v>168.9041137695312</v>
+        <v>168.904</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7275,7 +7293,7 @@
         <v>0.314</v>
       </c>
       <c r="B316">
-        <v>165.3795471191406</v>
+        <v>165.38</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -7283,7 +7301,7 @@
         <v>0.315</v>
       </c>
       <c r="B317">
-        <v>161.8549652099609</v>
+        <v>161.855</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7291,7 +7309,7 @@
         <v>0.316</v>
       </c>
       <c r="B318">
-        <v>163.6224822998047</v>
+        <v>163.622</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7299,7 +7317,7 @@
         <v>0.317</v>
       </c>
       <c r="B319">
-        <v>167.0610809326172</v>
+        <v>167.061</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7307,7 +7325,7 @@
         <v>0.318</v>
       </c>
       <c r="B320">
-        <v>170.4996948242188</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -7315,7 +7333,7 @@
         <v>0.319</v>
       </c>
       <c r="B321">
-        <v>171.1701812744141</v>
+        <v>171.17</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -7323,7 +7341,7 @@
         <v>0.32</v>
       </c>
       <c r="B322">
-        <v>171.6000061035156</v>
+        <v>171.6</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -7331,7 +7349,7 @@
         <v>0.321</v>
       </c>
       <c r="B323">
-        <v>172.0298309326172</v>
+        <v>172.03</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -7339,7 +7357,7 @@
         <v>0.322</v>
       </c>
       <c r="B324">
-        <v>172.4596557617188</v>
+        <v>172.46</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7347,7 +7365,7 @@
         <v>0.323</v>
       </c>
       <c r="B325">
-        <v>172.8894805908203</v>
+        <v>172.889</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7355,7 +7373,7 @@
         <v>0.324</v>
       </c>
       <c r="B326">
-        <v>172.9809265136719</v>
+        <v>172.981</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7363,7 +7381,7 @@
         <v>0.325</v>
       </c>
       <c r="B327">
-        <v>172.0009155273438</v>
+        <v>172.001</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7371,7 +7389,7 @@
         <v>0.326</v>
       </c>
       <c r="B328">
-        <v>171.0209197998047</v>
+        <v>171.021</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7379,7 +7397,7 @@
         <v>0.327</v>
       </c>
       <c r="B329">
-        <v>170.0409240722656</v>
+        <v>170.041</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7387,7 +7405,7 @@
         <v>0.328</v>
       </c>
       <c r="B330">
-        <v>169.0609130859375</v>
+        <v>169.061</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7395,7 +7413,7 @@
         <v>0.329</v>
       </c>
       <c r="B331">
-        <v>168.0809173583984</v>
+        <v>168.081</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7403,7 +7421,7 @@
         <v>0.33</v>
       </c>
       <c r="B332">
-        <v>167.1009216308594</v>
+        <v>167.101</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7411,7 +7429,7 @@
         <v>0.331</v>
       </c>
       <c r="B333">
-        <v>166.1209259033203</v>
+        <v>166.121</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7419,7 +7437,7 @@
         <v>0.332</v>
       </c>
       <c r="B334">
-        <v>165.1409149169922</v>
+        <v>165.141</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7427,7 +7445,7 @@
         <v>0.333</v>
       </c>
       <c r="B335">
-        <v>164.1609191894531</v>
+        <v>164.161</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7435,7 +7453,7 @@
         <v>0.334</v>
       </c>
       <c r="B336">
-        <v>163.1809234619141</v>
+        <v>163.181</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7443,7 +7461,7 @@
         <v>0.335</v>
       </c>
       <c r="B337">
-        <v>162.2009124755859</v>
+        <v>162.201</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7451,7 +7469,7 @@
         <v>0.336</v>
       </c>
       <c r="B338">
-        <v>161.2209167480469</v>
+        <v>161.221</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7459,7 +7477,7 @@
         <v>0.337</v>
       </c>
       <c r="B339">
-        <v>160.2409210205078</v>
+        <v>160.241</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7467,7 +7485,7 @@
         <v>0.338</v>
       </c>
       <c r="B340">
-        <v>159.2963104248047</v>
+        <v>159.296</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7475,7 +7493,7 @@
         <v>0.339</v>
       </c>
       <c r="B341">
-        <v>159.2007904052734</v>
+        <v>159.201</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -7483,7 +7501,7 @@
         <v>0.34</v>
       </c>
       <c r="B342">
-        <v>159.1052703857422</v>
+        <v>159.105</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -7491,7 +7509,7 @@
         <v>0.341</v>
       </c>
       <c r="B343">
-        <v>159.0097503662109</v>
+        <v>159.01</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7499,7 +7517,7 @@
         <v>0.342</v>
       </c>
       <c r="B344">
-        <v>158.9142303466797</v>
+        <v>158.914</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7507,7 +7525,7 @@
         <v>0.343</v>
       </c>
       <c r="B345">
-        <v>158.8187255859375</v>
+        <v>158.819</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7515,7 +7533,7 @@
         <v>0.344</v>
       </c>
       <c r="B346">
-        <v>158.7232055664062</v>
+        <v>158.723</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7523,7 +7541,7 @@
         <v>0.345</v>
       </c>
       <c r="B347">
-        <v>158.627685546875</v>
+        <v>158.628</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -7531,7 +7549,7 @@
         <v>0.346</v>
       </c>
       <c r="B348">
-        <v>158.5321655273438</v>
+        <v>158.532</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7539,7 +7557,7 @@
         <v>0.347</v>
       </c>
       <c r="B349">
-        <v>158.4366607666016</v>
+        <v>158.437</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7547,7 +7565,7 @@
         <v>0.348</v>
       </c>
       <c r="B350">
-        <v>158.3411407470703</v>
+        <v>158.341</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7555,7 +7573,7 @@
         <v>0.349</v>
       </c>
       <c r="B351">
-        <v>158.2456207275391</v>
+        <v>158.246</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7563,7 +7581,7 @@
         <v>0.35</v>
       </c>
       <c r="B352">
-        <v>158.1501007080078</v>
+        <v>158.15</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7571,7 +7589,7 @@
         <v>0.351</v>
       </c>
       <c r="B353">
-        <v>158.794677734375</v>
+        <v>158.795</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7579,7 +7597,7 @@
         <v>0.352</v>
       </c>
       <c r="B354">
-        <v>161.5455474853516</v>
+        <v>161.546</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7587,7 +7605,7 @@
         <v>0.353</v>
       </c>
       <c r="B355">
-        <v>164.2964172363281</v>
+        <v>164.296</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7595,7 +7613,7 @@
         <v>0.354</v>
       </c>
       <c r="B356">
-        <v>167.0473022460938</v>
+        <v>167.047</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7603,7 +7621,7 @@
         <v>0.355</v>
       </c>
       <c r="B357">
-        <v>169.7981719970703</v>
+        <v>169.798</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7611,7 +7629,7 @@
         <v>0.356</v>
       </c>
       <c r="B358">
-        <v>165.4998626708984</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7619,7 +7637,7 @@
         <v>0.357</v>
       </c>
       <c r="B359">
-        <v>165.9882659912109</v>
+        <v>165.988</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7627,7 +7645,7 @@
         <v>0.358</v>
       </c>
       <c r="B360">
-        <v>169.9426727294922</v>
+        <v>169.943</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -7635,7 +7653,7 @@
         <v>0.359</v>
       </c>
       <c r="B361">
-        <v>173.8970642089844</v>
+        <v>173.897</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7643,7 +7661,7 @@
         <v>0.36</v>
       </c>
       <c r="B362">
-        <v>164.2621154785156</v>
+        <v>164.262</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7651,7 +7669,7 @@
         <v>0.361</v>
       </c>
       <c r="B363">
-        <v>166.1256561279297</v>
+        <v>166.126</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7659,7 +7677,7 @@
         <v>0.362</v>
       </c>
       <c r="B364">
-        <v>157.7009735107422</v>
+        <v>157.701</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7667,7 +7685,7 @@
         <v>0.363</v>
       </c>
       <c r="B365">
-        <v>160.2630004882812</v>
+        <v>160.263</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7675,7 +7693,7 @@
         <v>0.364</v>
       </c>
       <c r="B366">
-        <v>162.5908508300781</v>
+        <v>162.591</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -7683,7 +7701,7 @@
         <v>0.365</v>
       </c>
       <c r="B367">
-        <v>161.8171691894531</v>
+        <v>161.817</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7691,7 +7709,7 @@
         <v>0.366</v>
       </c>
       <c r="B368">
-        <v>161.0434875488281</v>
+        <v>161.043</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -7699,7 +7717,7 @@
         <v>0.367</v>
       </c>
       <c r="B369">
-        <v>160.7649688720703</v>
+        <v>160.765</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7707,7 +7725,7 @@
         <v>0.368</v>
       </c>
       <c r="B370">
-        <v>160.73974609375</v>
+        <v>160.74</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -7715,7 +7733,7 @@
         <v>0.369</v>
       </c>
       <c r="B371">
-        <v>160.6251373291016</v>
+        <v>160.625</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7723,7 +7741,7 @@
         <v>0.37</v>
       </c>
       <c r="B372">
-        <v>160.5105133056641</v>
+        <v>160.511</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7731,7 +7749,7 @@
         <v>0.371</v>
       </c>
       <c r="B373">
-        <v>160.3958892822266</v>
+        <v>160.396</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -7739,7 +7757,7 @@
         <v>0.372</v>
       </c>
       <c r="B374">
-        <v>160.2812652587891</v>
+        <v>160.281</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7747,7 +7765,7 @@
         <v>0.373</v>
       </c>
       <c r="B375">
-        <v>161.156982421875</v>
+        <v>161.157</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7755,7 +7773,7 @@
         <v>0.374</v>
       </c>
       <c r="B376">
-        <v>162.0739440917969</v>
+        <v>162.074</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7763,7 +7781,7 @@
         <v>0.375</v>
       </c>
       <c r="B377">
-        <v>162.9909057617188</v>
+        <v>162.991</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -7771,7 +7789,7 @@
         <v>0.376</v>
       </c>
       <c r="B378">
-        <v>163.9078674316406</v>
+        <v>163.908</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7779,7 +7797,7 @@
         <v>0.377</v>
       </c>
       <c r="B379">
-        <v>163.4808807373047</v>
+        <v>163.481</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7787,7 +7805,7 @@
         <v>0.378</v>
       </c>
       <c r="B380">
-        <v>162.4779510498047</v>
+        <v>162.478</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7795,7 +7813,7 @@
         <v>0.379</v>
       </c>
       <c r="B381">
-        <v>161.4750213623047</v>
+        <v>161.475</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7803,7 +7821,7 @@
         <v>0.38</v>
       </c>
       <c r="B382">
-        <v>160.4720916748047</v>
+        <v>160.472</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7811,7 +7829,7 @@
         <v>0.381</v>
       </c>
       <c r="B383">
-        <v>159.4691772460938</v>
+        <v>159.469</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7819,7 +7837,7 @@
         <v>0.382</v>
       </c>
       <c r="B384">
-        <v>158.4662475585938</v>
+        <v>158.466</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7827,7 +7845,7 @@
         <v>0.383</v>
       </c>
       <c r="B385">
-        <v>157.4633178710938</v>
+        <v>157.463</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7835,7 +7853,7 @@
         <v>0.384</v>
       </c>
       <c r="B386">
-        <v>156.4603881835938</v>
+        <v>156.46</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -7843,7 +7861,7 @@
         <v>0.385</v>
       </c>
       <c r="B387">
-        <v>155.8933563232422</v>
+        <v>155.893</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7851,7 +7869,7 @@
         <v>0.386</v>
       </c>
       <c r="B388">
-        <v>157.3117828369141</v>
+        <v>157.312</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -7859,7 +7877,7 @@
         <v>0.387</v>
       </c>
       <c r="B389">
-        <v>158.7301940917969</v>
+        <v>158.73</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -7867,7 +7885,7 @@
         <v>0.388</v>
       </c>
       <c r="B390">
-        <v>160.1486206054688</v>
+        <v>160.149</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -7875,7 +7893,7 @@
         <v>0.389</v>
       </c>
       <c r="B391">
-        <v>161.5670318603516</v>
+        <v>161.567</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -7883,7 +7901,7 @@
         <v>0.39</v>
       </c>
       <c r="B392">
-        <v>162.9854431152344</v>
+        <v>162.985</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7891,7 +7909,7 @@
         <v>0.391</v>
       </c>
       <c r="B393">
-        <v>163.9239044189453</v>
+        <v>163.924</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -7899,7 +7917,7 @@
         <v>0.392</v>
       </c>
       <c r="B394">
-        <v>164.3823852539062</v>
+        <v>164.382</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -7907,7 +7925,7 @@
         <v>0.393</v>
       </c>
       <c r="B395">
-        <v>164.8408660888672</v>
+        <v>164.841</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -7915,7 +7933,7 @@
         <v>0.394</v>
       </c>
       <c r="B396">
-        <v>165.2993469238281</v>
+        <v>165.299</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -7923,7 +7941,7 @@
         <v>0.395</v>
       </c>
       <c r="B397">
-        <v>165.8953857421875</v>
+        <v>165.895</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -7931,7 +7949,7 @@
         <v>0.396</v>
       </c>
       <c r="B398">
-        <v>166.9269561767578</v>
+        <v>166.927</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7939,7 +7957,7 @@
         <v>0.397</v>
       </c>
       <c r="B399">
-        <v>167.9585418701172</v>
+        <v>167.959</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -7947,7 +7965,7 @@
         <v>0.398</v>
       </c>
       <c r="B400">
-        <v>169.4715576171875</v>
+        <v>169.472</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7955,7 +7973,7 @@
         <v>0.399</v>
       </c>
       <c r="B401">
-        <v>171.7066192626953</v>
+        <v>171.707</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -7963,7 +7981,7 @@
         <v>0.4</v>
       </c>
       <c r="B402">
-        <v>173.9416961669922</v>
+        <v>173.942</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7971,7 +7989,7 @@
         <v>0.401</v>
       </c>
       <c r="B403">
-        <v>171.5552673339844</v>
+        <v>171.555</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -7979,7 +7997,7 @@
         <v>0.402</v>
       </c>
       <c r="B404">
-        <v>166.1876220703125</v>
+        <v>166.188</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -7987,7 +8005,7 @@
         <v>0.403</v>
       </c>
       <c r="B405">
-        <v>164.8121948242188</v>
+        <v>164.812</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7995,7 +8013,7 @@
         <v>0.404</v>
       </c>
       <c r="B406">
-        <v>164.9222412109375</v>
+        <v>164.922</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -8003,7 +8021,7 @@
         <v>0.405</v>
       </c>
       <c r="B407">
-        <v>163.0413513183594</v>
+        <v>163.041</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -8011,7 +8029,7 @@
         <v>0.406</v>
       </c>
       <c r="B408">
-        <v>164.9325866699219</v>
+        <v>164.933</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -8019,7 +8037,7 @@
         <v>0.407</v>
       </c>
       <c r="B409">
-        <v>166.8238220214844</v>
+        <v>166.824</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -8027,7 +8045,7 @@
         <v>0.408</v>
       </c>
       <c r="B410">
-        <v>169.0314025878906</v>
+        <v>169.031</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -8035,7 +8053,7 @@
         <v>0.409</v>
       </c>
       <c r="B411">
-        <v>171.4108581542969</v>
+        <v>171.411</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -8043,7 +8061,7 @@
         <v>0.41</v>
       </c>
       <c r="B412">
-        <v>169.0038452148438</v>
+        <v>169.004</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -8051,7 +8069,7 @@
         <v>0.411</v>
       </c>
       <c r="B413">
-        <v>166.5968322753906</v>
+        <v>166.597</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -8059,7 +8077,7 @@
         <v>0.412</v>
       </c>
       <c r="B414">
-        <v>164.1898040771484</v>
+        <v>164.19</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -8067,7 +8085,7 @@
         <v>0.413</v>
       </c>
       <c r="B415">
-        <v>161.7827911376953</v>
+        <v>161.783</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -8075,7 +8093,7 @@
         <v>0.414</v>
       </c>
       <c r="B416">
-        <v>162.1728363037109</v>
+        <v>162.173</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -8083,7 +8101,7 @@
         <v>0.415</v>
       </c>
       <c r="B417">
-        <v>163.3517761230469</v>
+        <v>163.352</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -8091,7 +8109,7 @@
         <v>0.416</v>
       </c>
       <c r="B418">
-        <v>164.5307312011719</v>
+        <v>164.531</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -8099,7 +8117,7 @@
         <v>0.417</v>
       </c>
       <c r="B419">
-        <v>165.7096862792969</v>
+        <v>165.71</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -8107,7 +8125,7 @@
         <v>0.418</v>
       </c>
       <c r="B420">
-        <v>166.8886413574219</v>
+        <v>166.889</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -8115,7 +8133,7 @@
         <v>0.419</v>
       </c>
       <c r="B421">
-        <v>168.0675964355469</v>
+        <v>168.068</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -8123,7 +8141,7 @@
         <v>0.42</v>
       </c>
       <c r="B422">
-        <v>169.2465362548828</v>
+        <v>169.247</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -8131,7 +8149,7 @@
         <v>0.421</v>
       </c>
       <c r="B423">
-        <v>170.4254913330078</v>
+        <v>170.425</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -8139,7 +8157,7 @@
         <v>0.422</v>
       </c>
       <c r="B424">
-        <v>171.6044464111328</v>
+        <v>171.604</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -8147,7 +8165,7 @@
         <v>0.423</v>
       </c>
       <c r="B425">
-        <v>172.7834014892578</v>
+        <v>172.783</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -8155,7 +8173,7 @@
         <v>0.424</v>
       </c>
       <c r="B426">
-        <v>171.9790802001953</v>
+        <v>171.979</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -8163,7 +8181,7 @@
         <v>0.425</v>
       </c>
       <c r="B427">
-        <v>170.7970581054688</v>
+        <v>170.797</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -8171,7 +8189,7 @@
         <v>0.426</v>
       </c>
       <c r="B428">
-        <v>169.6150360107422</v>
+        <v>169.615</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -8179,7 +8197,7 @@
         <v>0.427</v>
       </c>
       <c r="B429">
-        <v>168.4330291748047</v>
+        <v>168.433</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8187,7 +8205,7 @@
         <v>0.428</v>
       </c>
       <c r="B430">
-        <v>167.2510070800781</v>
+        <v>167.251</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8195,7 +8213,7 @@
         <v>0.429</v>
       </c>
       <c r="B431">
-        <v>166.0689849853516</v>
+        <v>166.069</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8203,7 +8221,7 @@
         <v>0.43</v>
       </c>
       <c r="B432">
-        <v>164.8869781494141</v>
+        <v>164.887</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8211,7 +8229,7 @@
         <v>0.431</v>
       </c>
       <c r="B433">
-        <v>163.7049560546875</v>
+        <v>163.705</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8219,7 +8237,7 @@
         <v>0.432</v>
       </c>
       <c r="B434">
-        <v>162.5229339599609</v>
+        <v>162.523</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8227,7 +8245,7 @@
         <v>0.433</v>
       </c>
       <c r="B435">
-        <v>161.3409118652344</v>
+        <v>161.341</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8235,7 +8253,7 @@
         <v>0.434</v>
       </c>
       <c r="B436">
-        <v>160.1589050292969</v>
+        <v>160.159</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8243,7 +8261,7 @@
         <v>0.435</v>
       </c>
       <c r="B437">
-        <v>160.0256805419922</v>
+        <v>160.026</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8251,7 +8269,7 @@
         <v>0.436</v>
       </c>
       <c r="B438">
-        <v>161.0286102294922</v>
+        <v>161.029</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8259,7 +8277,7 @@
         <v>0.437</v>
       </c>
       <c r="B439">
-        <v>162.0315399169922</v>
+        <v>162.032</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8267,7 +8285,7 @@
         <v>0.438</v>
       </c>
       <c r="B440">
-        <v>163.0344543457031</v>
+        <v>163.034</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8275,7 +8293,7 @@
         <v>0.439</v>
       </c>
       <c r="B441">
-        <v>164.0373840332031</v>
+        <v>164.037</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8283,7 +8301,7 @@
         <v>0.44</v>
       </c>
       <c r="B442">
-        <v>165.0403137207031</v>
+        <v>165.04</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8291,7 +8309,7 @@
         <v>0.441</v>
       </c>
       <c r="B443">
-        <v>166.0432434082031</v>
+        <v>166.043</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8299,7 +8317,7 @@
         <v>0.442</v>
       </c>
       <c r="B444">
-        <v>167.0461730957031</v>
+        <v>167.046</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8307,7 +8325,7 @@
         <v>0.443</v>
       </c>
       <c r="B445">
-        <v>168.0490875244141</v>
+        <v>168.049</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8315,7 +8333,7 @@
         <v>0.444</v>
       </c>
       <c r="B446">
-        <v>171.968017578125</v>
+        <v>171.968</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8323,7 +8341,7 @@
         <v>0.445</v>
       </c>
       <c r="B447">
-        <v>176.0083770751953</v>
+        <v>176.008</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8331,7 +8349,7 @@
         <v>0.446</v>
       </c>
       <c r="B448">
-        <v>178.7177276611328</v>
+        <v>178.718</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -8339,7 +8357,7 @@
         <v>0.447</v>
       </c>
       <c r="B449">
-        <v>171.6686706542969</v>
+        <v>171.669</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -8347,7 +8365,7 @@
         <v>0.448</v>
       </c>
       <c r="B450">
-        <v>164.6195983886719</v>
+        <v>164.62</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -8355,7 +8373,7 @@
         <v>0.449</v>
       </c>
       <c r="B451">
-        <v>160.6033477783203</v>
+        <v>160.603</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -8363,7 +8381,7 @@
         <v>0.45</v>
       </c>
       <c r="B452">
-        <v>164.3858184814453</v>
+        <v>164.386</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8371,7 +8389,7 @@
         <v>0.451</v>
       </c>
       <c r="B453">
-        <v>168.1682891845703</v>
+        <v>168.168</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -8379,7 +8397,7 @@
         <v>0.452</v>
       </c>
       <c r="B454">
-        <v>168.7734375</v>
+        <v>168.773</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -8387,7 +8405,7 @@
         <v>0.453</v>
       </c>
       <c r="B455">
-        <v>165.4036407470703</v>
+        <v>165.404</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -8395,7 +8413,7 @@
         <v>0.454</v>
       </c>
       <c r="B456">
-        <v>165.4036407470703</v>
+        <v>165.404</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8403,7 +8421,7 @@
         <v>0.455</v>
       </c>
       <c r="B457">
-        <v>165.4036407470703</v>
+        <v>165.404</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8411,7 +8429,7 @@
         <v>0.456</v>
       </c>
       <c r="B458">
-        <v>165.5996704101562</v>
+        <v>165.6</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8419,7 +8437,7 @@
         <v>0.457</v>
       </c>
       <c r="B459">
-        <v>166.6885528564453</v>
+        <v>166.689</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -8427,7 +8445,7 @@
         <v>0.458</v>
       </c>
       <c r="B460">
-        <v>167.7774353027344</v>
+        <v>167.777</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -8435,7 +8453,7 @@
         <v>0.459</v>
       </c>
       <c r="B461">
-        <v>168.8663330078125</v>
+        <v>168.866</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -8443,7 +8461,7 @@
         <v>0.46</v>
       </c>
       <c r="B462">
-        <v>169.9552154541016</v>
+        <v>169.955</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -8451,7 +8469,7 @@
         <v>0.461</v>
       </c>
       <c r="B463">
-        <v>169.5414123535156</v>
+        <v>169.541</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -8459,7 +8477,7 @@
         <v>0.462</v>
       </c>
       <c r="B464">
-        <v>168.9969635009766</v>
+        <v>168.997</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -8467,7 +8485,7 @@
         <v>0.463</v>
       </c>
       <c r="B465">
-        <v>168.4525299072266</v>
+        <v>168.453</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -8475,7 +8493,7 @@
         <v>0.464</v>
       </c>
       <c r="B466">
-        <v>167.9080810546875</v>
+        <v>167.908</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -8483,7 +8501,7 @@
         <v>0.465</v>
       </c>
       <c r="B467">
-        <v>167.3636322021484</v>
+        <v>167.364</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -8491,7 +8509,7 @@
         <v>0.466</v>
       </c>
       <c r="B468">
-        <v>166.8191833496094</v>
+        <v>166.819</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8499,7 +8517,7 @@
         <v>0.467</v>
       </c>
       <c r="B469">
-        <v>166.2747344970703</v>
+        <v>166.275</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -8507,7 +8525,7 @@
         <v>0.468</v>
       </c>
       <c r="B470">
-        <v>165.7303009033203</v>
+        <v>165.73</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -8515,7 +8533,7 @@
         <v>0.469</v>
       </c>
       <c r="B471">
-        <v>165.5215454101562</v>
+        <v>165.522</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8523,7 +8541,7 @@
         <v>0.47</v>
       </c>
       <c r="B472">
-        <v>165.8162841796875</v>
+        <v>165.816</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -8531,7 +8549,7 @@
         <v>0.471</v>
       </c>
       <c r="B473">
-        <v>166.1110229492188</v>
+        <v>166.111</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8539,7 +8557,7 @@
         <v>0.472</v>
       </c>
       <c r="B474">
-        <v>166.4057464599609</v>
+        <v>166.406</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8547,7 +8565,7 @@
         <v>0.473</v>
       </c>
       <c r="B475">
-        <v>166.7004852294922</v>
+        <v>166.7</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8555,7 +8573,7 @@
         <v>0.474</v>
       </c>
       <c r="B476">
-        <v>166.9952239990234</v>
+        <v>166.995</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -8563,7 +8581,7 @@
         <v>0.475</v>
       </c>
       <c r="B477">
-        <v>167.2899627685547</v>
+        <v>167.29</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -8571,7 +8589,7 @@
         <v>0.476</v>
       </c>
       <c r="B478">
-        <v>167.5847015380859</v>
+        <v>167.585</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -8579,7 +8597,7 @@
         <v>0.477</v>
       </c>
       <c r="B479">
-        <v>167.8794403076172</v>
+        <v>167.879</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -8587,7 +8605,7 @@
         <v>0.478</v>
       </c>
       <c r="B480">
-        <v>168.1741790771484</v>
+        <v>168.174</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8595,7 +8613,7 @@
         <v>0.479</v>
       </c>
       <c r="B481">
-        <v>168.1435089111328</v>
+        <v>168.144</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8603,7 +8621,7 @@
         <v>0.48</v>
       </c>
       <c r="B482">
-        <v>167.7308807373047</v>
+        <v>167.731</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -8611,7 +8629,7 @@
         <v>0.481</v>
       </c>
       <c r="B483">
-        <v>167.3182525634766</v>
+        <v>167.318</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -8619,7 +8637,7 @@
         <v>0.482</v>
       </c>
       <c r="B484">
-        <v>166.9056091308594</v>
+        <v>166.906</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8627,7 +8645,7 @@
         <v>0.483</v>
       </c>
       <c r="B485">
-        <v>166.4929809570312</v>
+        <v>166.493</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -8635,7 +8653,7 @@
         <v>0.484</v>
       </c>
       <c r="B486">
-        <v>166.0803527832031</v>
+        <v>166.08</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8643,7 +8661,7 @@
         <v>0.485</v>
       </c>
       <c r="B487">
-        <v>165.667724609375</v>
+        <v>165.668</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -8651,7 +8669,7 @@
         <v>0.486</v>
       </c>
       <c r="B488">
-        <v>165.5274353027344</v>
+        <v>165.527</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -8659,7 +8677,7 @@
         <v>0.487</v>
       </c>
       <c r="B489">
-        <v>165.8712921142578</v>
+        <v>165.871</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -8667,7 +8685,7 @@
         <v>0.488</v>
       </c>
       <c r="B490">
-        <v>166.2151489257812</v>
+        <v>166.215</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -8675,7 +8693,7 @@
         <v>0.489</v>
       </c>
       <c r="B491">
-        <v>166.5590057373047</v>
+        <v>166.559</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -8683,7 +8701,7 @@
         <v>0.49</v>
       </c>
       <c r="B492">
-        <v>167.0576171875</v>
+        <v>167.058</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -8691,7 +8709,7 @@
         <v>0.491</v>
       </c>
       <c r="B493">
-        <v>168.9488677978516</v>
+        <v>168.949</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -8699,7 +8717,7 @@
         <v>0.492</v>
       </c>
       <c r="B494">
-        <v>170.8985748291016</v>
+        <v>170.899</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -8707,7 +8725,7 @@
         <v>0.493</v>
       </c>
       <c r="B495">
-        <v>172.8757629394531</v>
+        <v>172.876</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -8715,7 +8733,7 @@
         <v>0.494</v>
       </c>
       <c r="B496">
-        <v>174.8529663085938</v>
+        <v>174.853</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -8723,7 +8741,7 @@
         <v>0.495</v>
       </c>
       <c r="B497">
-        <v>168.670166015625</v>
+        <v>168.67</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -8731,7 +8749,7 @@
         <v>0.496</v>
       </c>
       <c r="B498">
-        <v>165.6994171142578</v>
+        <v>165.699</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -8739,7 +8757,7 @@
         <v>0.497</v>
       </c>
       <c r="B499">
-        <v>169.3099517822266</v>
+        <v>169.31</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -8747,7 +8765,7 @@
         <v>0.498</v>
       </c>
       <c r="B500">
-        <v>172.9204864501953</v>
+        <v>172.92</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -8755,7 +8773,7 @@
         <v>0.499</v>
       </c>
       <c r="B501">
-        <v>173.5592803955078</v>
+        <v>173.559</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -8763,7 +8781,7 @@
         <v>0.5</v>
       </c>
       <c r="B502">
-        <v>172.0463104248047</v>
+        <v>172.046</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -8771,7 +8789,7 @@
         <v>0.501</v>
       </c>
       <c r="B503">
-        <v>170.5333251953125</v>
+        <v>170.533</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -8779,7 +8797,7 @@
         <v>0.502</v>
       </c>
       <c r="B504">
-        <v>169.0203399658203</v>
+        <v>169.02</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -8787,7 +8805,7 @@
         <v>0.503</v>
       </c>
       <c r="B505">
-        <v>167.5073547363281</v>
+        <v>167.507</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -8795,7 +8813,7 @@
         <v>0.504</v>
       </c>
       <c r="B506">
-        <v>165.9943695068359</v>
+        <v>165.994</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -8803,7 +8821,7 @@
         <v>0.505</v>
       </c>
       <c r="B507">
-        <v>164.4813842773438</v>
+        <v>164.481</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -8811,7 +8829,7 @@
         <v>0.506</v>
       </c>
       <c r="B508">
-        <v>164.0692138671875</v>
+        <v>164.069</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -8819,7 +8837,7 @@
         <v>0.507</v>
       </c>
       <c r="B509">
-        <v>164.8495025634766</v>
+        <v>164.85</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -8827,7 +8845,7 @@
         <v>0.508</v>
       </c>
       <c r="B510">
-        <v>165.6298065185547</v>
+        <v>165.63</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -8835,7 +8853,7 @@
         <v>0.509</v>
       </c>
       <c r="B511">
-        <v>166.4100952148438</v>
+        <v>166.41</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -8843,7 +8861,7 @@
         <v>0.51</v>
       </c>
       <c r="B512">
-        <v>167.1903991699219</v>
+        <v>167.19</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -8851,7 +8869,7 @@
         <v>0.511</v>
       </c>
       <c r="B513">
-        <v>167.970703125</v>
+        <v>167.971</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -8859,7 +8877,7 @@
         <v>0.512</v>
       </c>
       <c r="B514">
-        <v>168.7509918212891</v>
+        <v>168.751</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -8867,7 +8885,7 @@
         <v>0.513</v>
       </c>
       <c r="B515">
-        <v>169.5312957763672</v>
+        <v>169.531</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -8875,7 +8893,7 @@
         <v>0.514</v>
       </c>
       <c r="B516">
-        <v>170.3115997314453</v>
+        <v>170.312</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -8883,7 +8901,7 @@
         <v>0.515</v>
       </c>
       <c r="B517">
-        <v>171.0918884277344</v>
+        <v>171.092</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -8891,7 +8909,7 @@
         <v>0.516</v>
       </c>
       <c r="B518">
-        <v>171.8721923828125</v>
+        <v>171.872</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -8899,7 +8917,7 @@
         <v>0.517</v>
       </c>
       <c r="B519">
-        <v>172.6524810791016</v>
+        <v>172.652</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -8907,7 +8925,7 @@
         <v>0.518</v>
       </c>
       <c r="B520">
-        <v>173.4327850341797</v>
+        <v>173.433</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -8915,7 +8933,7 @@
         <v>0.519</v>
       </c>
       <c r="B521">
-        <v>174.2130889892578</v>
+        <v>174.213</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -8923,7 +8941,7 @@
         <v>0.52</v>
       </c>
       <c r="B522">
-        <v>174.9933776855469</v>
+        <v>174.993</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -8931,7 +8949,7 @@
         <v>0.521</v>
       </c>
       <c r="B523">
-        <v>175.773681640625</v>
+        <v>175.774</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -8939,7 +8957,7 @@
         <v>0.522</v>
       </c>
       <c r="B524">
-        <v>176.5539703369141</v>
+        <v>176.554</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -8947,7 +8965,7 @@
         <v>0.523</v>
       </c>
       <c r="B525">
-        <v>177.3342742919922</v>
+        <v>177.334</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -8955,7 +8973,7 @@
         <v>0.524</v>
       </c>
       <c r="B526">
-        <v>178.088623046875</v>
+        <v>178.089</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -8963,7 +8981,7 @@
         <v>0.525</v>
       </c>
       <c r="B527">
-        <v>177.5728302001953</v>
+        <v>177.573</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -8971,7 +8989,7 @@
         <v>0.526</v>
       </c>
       <c r="B528">
-        <v>177.0570526123047</v>
+        <v>177.057</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -8979,7 +8997,7 @@
         <v>0.527</v>
       </c>
       <c r="B529">
-        <v>176.541259765625</v>
+        <v>176.541</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -8987,7 +9005,7 @@
         <v>0.528</v>
       </c>
       <c r="B530">
-        <v>176.0254669189453</v>
+        <v>176.025</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -8995,7 +9013,7 @@
         <v>0.529</v>
       </c>
       <c r="B531">
-        <v>175.5096740722656</v>
+        <v>175.51</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -9003,7 +9021,7 @@
         <v>0.53</v>
       </c>
       <c r="B532">
-        <v>174.9938812255859</v>
+        <v>174.994</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -9011,7 +9029,7 @@
         <v>0.531</v>
       </c>
       <c r="B533">
-        <v>174.4780883789062</v>
+        <v>174.478</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -9019,7 +9037,7 @@
         <v>0.532</v>
       </c>
       <c r="B534">
-        <v>173.9622955322266</v>
+        <v>173.962</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -9027,7 +9045,7 @@
         <v>0.533</v>
       </c>
       <c r="B535">
-        <v>173.4465179443359</v>
+        <v>173.447</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -9035,7 +9053,7 @@
         <v>0.534</v>
       </c>
       <c r="B536">
-        <v>172.9307250976562</v>
+        <v>172.931</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -9043,7 +9061,7 @@
         <v>0.535</v>
       </c>
       <c r="B537">
-        <v>172.4149322509766</v>
+        <v>172.415</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -9051,7 +9069,7 @@
         <v>0.536</v>
       </c>
       <c r="B538">
-        <v>170.7076110839844</v>
+        <v>170.708</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -9059,7 +9077,7 @@
         <v>0.537</v>
       </c>
       <c r="B539">
-        <v>168.3865814208984</v>
+        <v>168.387</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -9067,7 +9085,7 @@
         <v>0.538</v>
       </c>
       <c r="B540">
-        <v>166.0655517578125</v>
+        <v>166.066</v>
       </c>
     </row>
   </sheetData>
